--- a/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Consumer_Price_Index_All_Items_CPIAUCSL.xlsx
+++ b/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Consumer_Price_Index_All_Items_CPIAUCSL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="1704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="1731">
   <si>
     <t>realtime_start</t>
   </si>
@@ -28,7 +28,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>2021-08-03</t>
+    <t>2022-09-13</t>
   </si>
   <si>
     <t>1947-01-01</t>
@@ -2713,6 +2713,45 @@
     <t>2021-06-01</t>
   </si>
   <si>
+    <t>2021-07-01</t>
+  </si>
+  <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022-02-01</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
     <t>21.48</t>
   </si>
   <si>
@@ -4969,163 +5008,205 @@
     <t>242.637</t>
   </si>
   <si>
-    <t>243.620</t>
-  </si>
-  <si>
-    <t>243.872</t>
-  </si>
-  <si>
-    <t>243.766</t>
-  </si>
-  <si>
-    <t>244.274</t>
-  </si>
-  <si>
-    <t>244.069</t>
-  </si>
-  <si>
-    <t>244.218</t>
-  </si>
-  <si>
-    <t>244.280</t>
-  </si>
-  <si>
-    <t>245.205</t>
-  </si>
-  <si>
-    <t>246.551</t>
-  </si>
-  <si>
-    <t>246.657</t>
-  </si>
-  <si>
-    <t>247.378</t>
-  </si>
-  <si>
-    <t>247.736</t>
-  </si>
-  <si>
-    <t>248.721</t>
-  </si>
-  <si>
-    <t>249.300</t>
-  </si>
-  <si>
-    <t>249.517</t>
-  </si>
-  <si>
-    <t>250.275</t>
-  </si>
-  <si>
-    <t>250.786</t>
-  </si>
-  <si>
-    <t>251.152</t>
-  </si>
-  <si>
-    <t>251.345</t>
-  </si>
-  <si>
-    <t>251.735</t>
-  </si>
-  <si>
-    <t>252.183</t>
-  </si>
-  <si>
-    <t>252.899</t>
-  </si>
-  <si>
-    <t>252.822</t>
-  </si>
-  <si>
-    <t>252.493</t>
-  </si>
-  <si>
-    <t>252.441</t>
-  </si>
-  <si>
-    <t>252.969</t>
-  </si>
-  <si>
-    <t>254.147</t>
-  </si>
-  <si>
-    <t>255.326</t>
-  </si>
-  <si>
-    <t>255.371</t>
-  </si>
-  <si>
-    <t>255.423</t>
-  </si>
-  <si>
-    <t>255.925</t>
-  </si>
-  <si>
-    <t>256.118</t>
-  </si>
-  <si>
-    <t>256.532</t>
-  </si>
-  <si>
-    <t>257.387</t>
-  </si>
-  <si>
-    <t>257.989</t>
-  </si>
-  <si>
-    <t>258.203</t>
-  </si>
-  <si>
-    <t>258.687</t>
-  </si>
-  <si>
-    <t>258.824</t>
-  </si>
-  <si>
-    <t>256.192</t>
-  </si>
-  <si>
-    <t>255.942</t>
-  </si>
-  <si>
-    <t>257.282</t>
-  </si>
-  <si>
-    <t>258.604</t>
-  </si>
-  <si>
-    <t>259.511</t>
-  </si>
-  <si>
-    <t>260.149</t>
-  </si>
-  <si>
-    <t>260.462</t>
-  </si>
-  <si>
-    <t>260.927</t>
-  </si>
-  <si>
-    <t>261.560</t>
-  </si>
-  <si>
-    <t>262.231</t>
-  </si>
-  <si>
-    <t>263.161</t>
-  </si>
-  <si>
-    <t>264.793</t>
-  </si>
-  <si>
-    <t>266.832</t>
-  </si>
-  <si>
-    <t>268.551</t>
-  </si>
-  <si>
-    <t>270.981</t>
+    <t>243.618</t>
+  </si>
+  <si>
+    <t>244.006</t>
+  </si>
+  <si>
+    <t>243.892</t>
+  </si>
+  <si>
+    <t>244.193</t>
+  </si>
+  <si>
+    <t>244.004</t>
+  </si>
+  <si>
+    <t>244.163</t>
+  </si>
+  <si>
+    <t>244.243</t>
+  </si>
+  <si>
+    <t>245.183</t>
+  </si>
+  <si>
+    <t>246.435</t>
+  </si>
+  <si>
+    <t>246.626</t>
+  </si>
+  <si>
+    <t>247.284</t>
+  </si>
+  <si>
+    <t>247.805</t>
+  </si>
+  <si>
+    <t>248.743</t>
+  </si>
+  <si>
+    <t>249.439</t>
+  </si>
+  <si>
+    <t>249.581</t>
+  </si>
+  <si>
+    <t>250.146</t>
+  </si>
+  <si>
+    <t>250.779</t>
+  </si>
+  <si>
+    <t>251.118</t>
+  </si>
+  <si>
+    <t>251.323</t>
+  </si>
+  <si>
+    <t>251.749</t>
+  </si>
+  <si>
+    <t>252.239</t>
+  </si>
+  <si>
+    <t>252.862</t>
+  </si>
+  <si>
+    <t>252.657</t>
+  </si>
+  <si>
+    <t>252.551</t>
+  </si>
+  <si>
+    <t>252.470</t>
+  </si>
+  <si>
+    <t>253.135</t>
+  </si>
+  <si>
+    <t>254.273</t>
+  </si>
+  <si>
+    <t>255.163</t>
+  </si>
+  <si>
+    <t>255.325</t>
+  </si>
+  <si>
+    <t>255.361</t>
+  </si>
+  <si>
+    <t>255.900</t>
+  </si>
+  <si>
+    <t>256.179</t>
+  </si>
+  <si>
+    <t>256.596</t>
+  </si>
+  <si>
+    <t>257.305</t>
+  </si>
+  <si>
+    <t>257.788</t>
+  </si>
+  <si>
+    <t>258.263</t>
+  </si>
+  <si>
+    <t>258.682</t>
+  </si>
+  <si>
+    <t>259.007</t>
+  </si>
+  <si>
+    <t>258.165</t>
+  </si>
+  <si>
+    <t>256.094</t>
+  </si>
+  <si>
+    <t>255.944</t>
+  </si>
+  <si>
+    <t>257.217</t>
+  </si>
+  <si>
+    <t>258.543</t>
+  </si>
+  <si>
+    <t>259.580</t>
+  </si>
+  <si>
+    <t>260.190</t>
+  </si>
+  <si>
+    <t>260.352</t>
+  </si>
+  <si>
+    <t>260.721</t>
+  </si>
+  <si>
+    <t>261.564</t>
+  </si>
+  <si>
+    <t>262.200</t>
+  </si>
+  <si>
+    <t>263.346</t>
+  </si>
+  <si>
+    <t>265.028</t>
+  </si>
+  <si>
+    <t>266.727</t>
+  </si>
+  <si>
+    <t>268.599</t>
+  </si>
+  <si>
+    <t>270.955</t>
+  </si>
+  <si>
+    <t>272.184</t>
+  </si>
+  <si>
+    <t>273.092</t>
+  </si>
+  <si>
+    <t>274.214</t>
+  </si>
+  <si>
+    <t>276.590</t>
+  </si>
+  <si>
+    <t>278.524</t>
+  </si>
+  <si>
+    <t>280.126</t>
+  </si>
+  <si>
+    <t>281.933</t>
+  </si>
+  <si>
+    <t>284.182</t>
+  </si>
+  <si>
+    <t>287.708</t>
+  </si>
+  <si>
+    <t>288.663</t>
+  </si>
+  <si>
+    <t>291.474</t>
+  </si>
+  <si>
+    <t>295.328</t>
+  </si>
+  <si>
+    <t>295.271</t>
   </si>
 </sst>
 </file>
@@ -5483,7 +5564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E895"/>
+  <dimension ref="A1:E908"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5520,7 +5601,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>899</v>
+        <v>912</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5537,7 +5618,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>900</v>
+        <v>913</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5554,7 +5635,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>901</v>
+        <v>914</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5571,7 +5652,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>901</v>
+        <v>914</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5588,7 +5669,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>902</v>
+        <v>915</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5605,7 +5686,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>903</v>
+        <v>916</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5622,7 +5703,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5639,7 +5720,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>905</v>
+        <v>918</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5656,7 +5737,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>906</v>
+        <v>919</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5673,7 +5754,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>907</v>
+        <v>920</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5690,7 +5771,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>908</v>
+        <v>921</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5707,7 +5788,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>909</v>
+        <v>922</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5724,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>910</v>
+        <v>923</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5741,7 +5822,7 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>911</v>
+        <v>924</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5758,7 +5839,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>912</v>
+        <v>925</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5775,7 +5856,7 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>913</v>
+        <v>926</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5792,7 +5873,7 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>914</v>
+        <v>927</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5809,7 +5890,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>915</v>
+        <v>928</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5826,7 +5907,7 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>916</v>
+        <v>929</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5843,7 +5924,7 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>917</v>
+        <v>930</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5860,7 +5941,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>918</v>
+        <v>931</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5877,7 +5958,7 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>919</v>
+        <v>932</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5894,7 +5975,7 @@
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>920</v>
+        <v>933</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5911,7 +5992,7 @@
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>921</v>
+        <v>934</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5928,7 +6009,7 @@
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>914</v>
+        <v>927</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5945,7 +6026,7 @@
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>922</v>
+        <v>935</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5962,7 +6043,7 @@
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>922</v>
+        <v>935</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5979,7 +6060,7 @@
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>923</v>
+        <v>936</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5996,7 +6077,7 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>922</v>
+        <v>935</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -6013,7 +6094,7 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>923</v>
+        <v>936</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -6030,7 +6111,7 @@
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>924</v>
+        <v>937</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6047,7 +6128,7 @@
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>924</v>
+        <v>937</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6064,7 +6145,7 @@
         <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>925</v>
+        <v>938</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -6081,7 +6162,7 @@
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>911</v>
+        <v>924</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6098,7 +6179,7 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>924</v>
+        <v>937</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6115,7 +6196,7 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>926</v>
+        <v>939</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6132,7 +6213,7 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>927</v>
+        <v>940</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6149,7 +6230,7 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>926</v>
+        <v>939</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6166,7 +6247,7 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>928</v>
+        <v>941</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -6183,7 +6264,7 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>929</v>
+        <v>942</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -6200,7 +6281,7 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>930</v>
+        <v>943</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -6217,7 +6298,7 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>931</v>
+        <v>944</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -6234,7 +6315,7 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>932</v>
+        <v>945</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -6251,7 +6332,7 @@
         <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -6268,7 +6349,7 @@
         <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>934</v>
+        <v>947</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -6285,7 +6366,7 @@
         <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>935</v>
+        <v>948</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -6302,7 +6383,7 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -6319,7 +6400,7 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>937</v>
+        <v>950</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -6336,7 +6417,7 @@
         <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>938</v>
+        <v>951</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -6353,7 +6434,7 @@
         <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>939</v>
+        <v>952</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -6370,7 +6451,7 @@
         <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>940</v>
+        <v>953</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -6387,7 +6468,7 @@
         <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>941</v>
+        <v>954</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -6404,7 +6485,7 @@
         <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>942</v>
+        <v>955</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -6421,7 +6502,7 @@
         <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>943</v>
+        <v>956</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -6438,7 +6519,7 @@
         <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>944</v>
+        <v>957</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -6455,7 +6536,7 @@
         <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>945</v>
+        <v>958</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -6472,7 +6553,7 @@
         <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>946</v>
+        <v>959</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -6489,7 +6570,7 @@
         <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>947</v>
+        <v>960</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -6506,7 +6587,7 @@
         <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>948</v>
+        <v>961</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -6523,7 +6604,7 @@
         <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>949</v>
+        <v>962</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -6540,7 +6621,7 @@
         <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>950</v>
+        <v>963</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -6557,7 +6638,7 @@
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>951</v>
+        <v>964</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -6574,7 +6655,7 @@
         <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -6591,7 +6672,7 @@
         <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>953</v>
+        <v>966</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -6608,7 +6689,7 @@
         <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>949</v>
+        <v>962</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -6625,7 +6706,7 @@
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>954</v>
+        <v>967</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -6642,7 +6723,7 @@
         <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>955</v>
+        <v>968</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -6659,7 +6740,7 @@
         <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>956</v>
+        <v>969</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -6676,7 +6757,7 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>957</v>
+        <v>970</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -6693,7 +6774,7 @@
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>956</v>
+        <v>969</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -6710,7 +6791,7 @@
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>956</v>
+        <v>969</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -6727,7 +6808,7 @@
         <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>958</v>
+        <v>971</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -6744,7 +6825,7 @@
         <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>959</v>
+        <v>972</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -6761,7 +6842,7 @@
         <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -6778,7 +6859,7 @@
         <v>79</v>
       </c>
       <c r="E76" t="s">
-        <v>957</v>
+        <v>970</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -6795,7 +6876,7 @@
         <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>956</v>
+        <v>969</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -6812,7 +6893,7 @@
         <v>81</v>
       </c>
       <c r="E78" t="s">
-        <v>961</v>
+        <v>974</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -6829,7 +6910,7 @@
         <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>962</v>
+        <v>975</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -6846,7 +6927,7 @@
         <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>963</v>
+        <v>976</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -6863,7 +6944,7 @@
         <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -6880,7 +6961,7 @@
         <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>965</v>
+        <v>978</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -6897,7 +6978,7 @@
         <v>86</v>
       </c>
       <c r="E83" t="s">
-        <v>966</v>
+        <v>979</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -6914,7 +6995,7 @@
         <v>87</v>
       </c>
       <c r="E84" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -6931,7 +7012,7 @@
         <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>967</v>
+        <v>980</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -6948,7 +7029,7 @@
         <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>968</v>
+        <v>981</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -6965,7 +7046,7 @@
         <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>969</v>
+        <v>982</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -6982,7 +7063,7 @@
         <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>970</v>
+        <v>983</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -6999,7 +7080,7 @@
         <v>92</v>
       </c>
       <c r="E89" t="s">
-        <v>971</v>
+        <v>984</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -7016,7 +7097,7 @@
         <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>970</v>
+        <v>983</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -7033,7 +7114,7 @@
         <v>94</v>
       </c>
       <c r="E91" t="s">
-        <v>968</v>
+        <v>981</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -7050,7 +7131,7 @@
         <v>95</v>
       </c>
       <c r="E92" t="s">
-        <v>971</v>
+        <v>984</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -7067,7 +7148,7 @@
         <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -7084,7 +7165,7 @@
         <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>972</v>
+        <v>985</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -7101,7 +7182,7 @@
         <v>98</v>
       </c>
       <c r="E95" t="s">
-        <v>973</v>
+        <v>986</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -7118,7 +7199,7 @@
         <v>99</v>
       </c>
       <c r="E96" t="s">
-        <v>974</v>
+        <v>987</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -7135,7 +7216,7 @@
         <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>962</v>
+        <v>975</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -7152,7 +7233,7 @@
         <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>962</v>
+        <v>975</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -7169,7 +7250,7 @@
         <v>102</v>
       </c>
       <c r="E99" t="s">
-        <v>975</v>
+        <v>988</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -7186,7 +7267,7 @@
         <v>103</v>
       </c>
       <c r="E100" t="s">
-        <v>963</v>
+        <v>976</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -7203,7 +7284,7 @@
         <v>104</v>
       </c>
       <c r="E101" t="s">
-        <v>963</v>
+        <v>976</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -7220,7 +7301,7 @@
         <v>105</v>
       </c>
       <c r="E102" t="s">
-        <v>962</v>
+        <v>975</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -7237,7 +7318,7 @@
         <v>106</v>
       </c>
       <c r="E103" t="s">
-        <v>958</v>
+        <v>971</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -7254,7 +7335,7 @@
         <v>107</v>
       </c>
       <c r="E104" t="s">
-        <v>976</v>
+        <v>989</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -7271,7 +7352,7 @@
         <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>973</v>
+        <v>986</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -7288,7 +7369,7 @@
         <v>109</v>
       </c>
       <c r="E106" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -7305,7 +7386,7 @@
         <v>110</v>
       </c>
       <c r="E107" t="s">
-        <v>975</v>
+        <v>988</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -7322,7 +7403,7 @@
         <v>111</v>
       </c>
       <c r="E108" t="s">
-        <v>977</v>
+        <v>990</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -7339,7 +7420,7 @@
         <v>112</v>
       </c>
       <c r="E109" t="s">
-        <v>967</v>
+        <v>980</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -7356,7 +7437,7 @@
         <v>113</v>
       </c>
       <c r="E110" t="s">
-        <v>978</v>
+        <v>991</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -7373,7 +7454,7 @@
         <v>114</v>
       </c>
       <c r="E111" t="s">
-        <v>971</v>
+        <v>984</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -7390,7 +7471,7 @@
         <v>115</v>
       </c>
       <c r="E112" t="s">
-        <v>965</v>
+        <v>978</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -7407,7 +7488,7 @@
         <v>116</v>
       </c>
       <c r="E113" t="s">
-        <v>970</v>
+        <v>983</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -7424,7 +7505,7 @@
         <v>117</v>
       </c>
       <c r="E114" t="s">
-        <v>979</v>
+        <v>992</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -7441,7 +7522,7 @@
         <v>118</v>
       </c>
       <c r="E115" t="s">
-        <v>980</v>
+        <v>993</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -7458,7 +7539,7 @@
         <v>119</v>
       </c>
       <c r="E116" t="s">
-        <v>981</v>
+        <v>994</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -7475,7 +7556,7 @@
         <v>120</v>
       </c>
       <c r="E117" t="s">
-        <v>982</v>
+        <v>995</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -7492,7 +7573,7 @@
         <v>121</v>
       </c>
       <c r="E118" t="s">
-        <v>983</v>
+        <v>996</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -7509,7 +7590,7 @@
         <v>122</v>
       </c>
       <c r="E119" t="s">
-        <v>984</v>
+        <v>997</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -7526,7 +7607,7 @@
         <v>123</v>
       </c>
       <c r="E120" t="s">
-        <v>984</v>
+        <v>997</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -7543,7 +7624,7 @@
         <v>124</v>
       </c>
       <c r="E121" t="s">
-        <v>985</v>
+        <v>998</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -7560,7 +7641,7 @@
         <v>125</v>
       </c>
       <c r="E122" t="s">
-        <v>986</v>
+        <v>999</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -7577,7 +7658,7 @@
         <v>126</v>
       </c>
       <c r="E123" t="s">
-        <v>987</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -7594,7 +7675,7 @@
         <v>127</v>
       </c>
       <c r="E124" t="s">
-        <v>988</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -7611,7 +7692,7 @@
         <v>128</v>
       </c>
       <c r="E125" t="s">
-        <v>989</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -7628,7 +7709,7 @@
         <v>129</v>
       </c>
       <c r="E126" t="s">
-        <v>990</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -7645,7 +7726,7 @@
         <v>130</v>
       </c>
       <c r="E127" t="s">
-        <v>991</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -7662,7 +7743,7 @@
         <v>131</v>
       </c>
       <c r="E128" t="s">
-        <v>992</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -7679,7 +7760,7 @@
         <v>132</v>
       </c>
       <c r="E129" t="s">
-        <v>993</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -7696,7 +7777,7 @@
         <v>133</v>
       </c>
       <c r="E130" t="s">
-        <v>994</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -7713,7 +7794,7 @@
         <v>134</v>
       </c>
       <c r="E131" t="s">
-        <v>994</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -7730,7 +7811,7 @@
         <v>135</v>
       </c>
       <c r="E132" t="s">
-        <v>995</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -7747,7 +7828,7 @@
         <v>136</v>
       </c>
       <c r="E133" t="s">
-        <v>996</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -7764,7 +7845,7 @@
         <v>137</v>
       </c>
       <c r="E134" t="s">
-        <v>997</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -7781,7 +7862,7 @@
         <v>138</v>
       </c>
       <c r="E135" t="s">
-        <v>998</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -7798,7 +7879,7 @@
         <v>139</v>
       </c>
       <c r="E136" t="s">
-        <v>999</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -7815,7 +7896,7 @@
         <v>140</v>
       </c>
       <c r="E137" t="s">
-        <v>1000</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -7832,7 +7913,7 @@
         <v>141</v>
       </c>
       <c r="E138" t="s">
-        <v>1000</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -7849,7 +7930,7 @@
         <v>142</v>
       </c>
       <c r="E139" t="s">
-        <v>1001</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -7866,7 +7947,7 @@
         <v>143</v>
       </c>
       <c r="E140" t="s">
-        <v>1002</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -7883,7 +7964,7 @@
         <v>144</v>
       </c>
       <c r="E141" t="s">
-        <v>1000</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -7900,7 +7981,7 @@
         <v>145</v>
       </c>
       <c r="E142" t="s">
-        <v>1001</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -7917,7 +7998,7 @@
         <v>146</v>
       </c>
       <c r="E143" t="s">
-        <v>1001</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -7934,7 +8015,7 @@
         <v>147</v>
       </c>
       <c r="E144" t="s">
-        <v>1003</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -7951,7 +8032,7 @@
         <v>148</v>
       </c>
       <c r="E145" t="s">
-        <v>1004</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -7968,7 +8049,7 @@
         <v>149</v>
       </c>
       <c r="E146" t="s">
-        <v>1005</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -7985,7 +8066,7 @@
         <v>150</v>
       </c>
       <c r="E147" t="s">
-        <v>1006</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -8002,7 +8083,7 @@
         <v>151</v>
       </c>
       <c r="E148" t="s">
-        <v>1004</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -8019,7 +8100,7 @@
         <v>152</v>
       </c>
       <c r="E149" t="s">
-        <v>1007</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -8036,7 +8117,7 @@
         <v>153</v>
       </c>
       <c r="E150" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -8053,7 +8134,7 @@
         <v>154</v>
       </c>
       <c r="E151" t="s">
-        <v>1009</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -8070,7 +8151,7 @@
         <v>155</v>
       </c>
       <c r="E152" t="s">
-        <v>1010</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -8087,7 +8168,7 @@
         <v>156</v>
       </c>
       <c r="E153" t="s">
-        <v>1011</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -8104,7 +8185,7 @@
         <v>157</v>
       </c>
       <c r="E154" t="s">
-        <v>1012</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -8121,7 +8202,7 @@
         <v>158</v>
       </c>
       <c r="E155" t="s">
-        <v>1013</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -8138,7 +8219,7 @@
         <v>159</v>
       </c>
       <c r="E156" t="s">
-        <v>1013</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -8155,7 +8236,7 @@
         <v>160</v>
       </c>
       <c r="E157" t="s">
-        <v>1014</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -8172,7 +8253,7 @@
         <v>161</v>
       </c>
       <c r="E158" t="s">
-        <v>1015</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -8189,7 +8270,7 @@
         <v>162</v>
       </c>
       <c r="E159" t="s">
-        <v>1014</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -8206,7 +8287,7 @@
         <v>163</v>
       </c>
       <c r="E160" t="s">
-        <v>1014</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -8223,7 +8304,7 @@
         <v>164</v>
       </c>
       <c r="E161" t="s">
-        <v>1016</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -8240,7 +8321,7 @@
         <v>165</v>
       </c>
       <c r="E162" t="s">
-        <v>1017</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -8257,7 +8338,7 @@
         <v>166</v>
       </c>
       <c r="E163" t="s">
-        <v>1018</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -8274,7 +8355,7 @@
         <v>167</v>
       </c>
       <c r="E164" t="s">
-        <v>1019</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -8291,7 +8372,7 @@
         <v>168</v>
       </c>
       <c r="E165" t="s">
-        <v>1018</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -8308,7 +8389,7 @@
         <v>169</v>
       </c>
       <c r="E166" t="s">
-        <v>1018</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -8325,7 +8406,7 @@
         <v>170</v>
       </c>
       <c r="E167" t="s">
-        <v>1020</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -8342,7 +8423,7 @@
         <v>171</v>
       </c>
       <c r="E168" t="s">
-        <v>1021</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -8359,7 +8440,7 @@
         <v>172</v>
       </c>
       <c r="E169" t="s">
-        <v>1022</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -8376,7 +8457,7 @@
         <v>173</v>
       </c>
       <c r="E170" t="s">
-        <v>1023</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -8393,7 +8474,7 @@
         <v>174</v>
       </c>
       <c r="E171" t="s">
-        <v>1023</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -8410,7 +8491,7 @@
         <v>175</v>
       </c>
       <c r="E172" t="s">
-        <v>1023</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -8427,7 +8508,7 @@
         <v>176</v>
       </c>
       <c r="E173" t="s">
-        <v>1022</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -8444,7 +8525,7 @@
         <v>177</v>
       </c>
       <c r="E174" t="s">
-        <v>1023</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -8461,7 +8542,7 @@
         <v>178</v>
       </c>
       <c r="E175" t="s">
-        <v>1023</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -8478,7 +8559,7 @@
         <v>179</v>
       </c>
       <c r="E176" t="s">
-        <v>1024</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -8495,7 +8576,7 @@
         <v>180</v>
       </c>
       <c r="E177" t="s">
-        <v>1025</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -8512,7 +8593,7 @@
         <v>181</v>
       </c>
       <c r="E178" t="s">
-        <v>1026</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -8529,7 +8610,7 @@
         <v>182</v>
       </c>
       <c r="E179" t="s">
-        <v>1026</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -8546,7 +8627,7 @@
         <v>183</v>
       </c>
       <c r="E180" t="s">
-        <v>1026</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -8563,7 +8644,7 @@
         <v>184</v>
       </c>
       <c r="E181" t="s">
-        <v>1027</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -8580,7 +8661,7 @@
         <v>185</v>
       </c>
       <c r="E182" t="s">
-        <v>1028</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -8597,7 +8678,7 @@
         <v>186</v>
       </c>
       <c r="E183" t="s">
-        <v>1029</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -8614,7 +8695,7 @@
         <v>187</v>
       </c>
       <c r="E184" t="s">
-        <v>1030</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -8631,7 +8712,7 @@
         <v>188</v>
       </c>
       <c r="E185" t="s">
-        <v>1031</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -8648,7 +8729,7 @@
         <v>189</v>
       </c>
       <c r="E186" t="s">
-        <v>1032</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -8665,7 +8746,7 @@
         <v>190</v>
       </c>
       <c r="E187" t="s">
-        <v>1031</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -8682,7 +8763,7 @@
         <v>191</v>
       </c>
       <c r="E188" t="s">
-        <v>1033</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -8699,7 +8780,7 @@
         <v>192</v>
       </c>
       <c r="E189" t="s">
-        <v>1034</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -8716,7 +8797,7 @@
         <v>193</v>
       </c>
       <c r="E190" t="s">
-        <v>1035</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -8733,7 +8814,7 @@
         <v>194</v>
       </c>
       <c r="E191" t="s">
-        <v>1036</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -8750,7 +8831,7 @@
         <v>195</v>
       </c>
       <c r="E192" t="s">
-        <v>1036</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -8767,7 +8848,7 @@
         <v>196</v>
       </c>
       <c r="E193" t="s">
-        <v>1036</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -8784,7 +8865,7 @@
         <v>197</v>
       </c>
       <c r="E194" t="s">
-        <v>1037</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -8801,7 +8882,7 @@
         <v>198</v>
       </c>
       <c r="E195" t="s">
-        <v>1038</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -8818,7 +8899,7 @@
         <v>199</v>
       </c>
       <c r="E196" t="s">
-        <v>1039</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -8835,7 +8916,7 @@
         <v>200</v>
       </c>
       <c r="E197" t="s">
-        <v>1038</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -8852,7 +8933,7 @@
         <v>201</v>
       </c>
       <c r="E198" t="s">
-        <v>1039</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -8869,7 +8950,7 @@
         <v>202</v>
       </c>
       <c r="E199" t="s">
-        <v>1040</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -8886,7 +8967,7 @@
         <v>203</v>
       </c>
       <c r="E200" t="s">
-        <v>1041</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -8903,7 +8984,7 @@
         <v>204</v>
       </c>
       <c r="E201" t="s">
-        <v>1042</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -8920,7 +9001,7 @@
         <v>205</v>
       </c>
       <c r="E202" t="s">
-        <v>1043</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -8937,7 +9018,7 @@
         <v>206</v>
       </c>
       <c r="E203" t="s">
-        <v>1042</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -8954,7 +9035,7 @@
         <v>207</v>
       </c>
       <c r="E204" t="s">
-        <v>1044</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -8971,7 +9052,7 @@
         <v>208</v>
       </c>
       <c r="E205" t="s">
-        <v>1045</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -8988,7 +9069,7 @@
         <v>209</v>
       </c>
       <c r="E206" t="s">
-        <v>1046</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -9005,7 +9086,7 @@
         <v>210</v>
       </c>
       <c r="E207" t="s">
-        <v>1047</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -9022,7 +9103,7 @@
         <v>211</v>
       </c>
       <c r="E208" t="s">
-        <v>1046</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -9039,7 +9120,7 @@
         <v>212</v>
       </c>
       <c r="E209" t="s">
-        <v>1048</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -9056,7 +9137,7 @@
         <v>213</v>
       </c>
       <c r="E210" t="s">
-        <v>1049</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -9073,7 +9154,7 @@
         <v>214</v>
       </c>
       <c r="E211" t="s">
-        <v>1050</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -9090,7 +9171,7 @@
         <v>215</v>
       </c>
       <c r="E212" t="s">
-        <v>1051</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -9107,7 +9188,7 @@
         <v>216</v>
       </c>
       <c r="E213" t="s">
-        <v>1052</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -9124,7 +9205,7 @@
         <v>217</v>
       </c>
       <c r="E214" t="s">
-        <v>1053</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -9141,7 +9222,7 @@
         <v>218</v>
       </c>
       <c r="E215" t="s">
-        <v>1054</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -9158,7 +9239,7 @@
         <v>219</v>
       </c>
       <c r="E216" t="s">
-        <v>1055</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -9175,7 +9256,7 @@
         <v>220</v>
       </c>
       <c r="E217" t="s">
-        <v>1056</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -9192,7 +9273,7 @@
         <v>221</v>
       </c>
       <c r="E218" t="s">
-        <v>1057</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -9209,7 +9290,7 @@
         <v>222</v>
       </c>
       <c r="E219" t="s">
-        <v>1057</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -9226,7 +9307,7 @@
         <v>223</v>
       </c>
       <c r="E220" t="s">
-        <v>1058</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -9243,7 +9324,7 @@
         <v>224</v>
       </c>
       <c r="E221" t="s">
-        <v>1059</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -9260,7 +9341,7 @@
         <v>225</v>
       </c>
       <c r="E222" t="s">
-        <v>1060</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -9277,7 +9358,7 @@
         <v>226</v>
       </c>
       <c r="E223" t="s">
-        <v>1061</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -9294,7 +9375,7 @@
         <v>227</v>
       </c>
       <c r="E224" t="s">
-        <v>1062</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -9311,7 +9392,7 @@
         <v>228</v>
       </c>
       <c r="E225" t="s">
-        <v>1063</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -9328,7 +9409,7 @@
         <v>229</v>
       </c>
       <c r="E226" t="s">
-        <v>1064</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -9345,7 +9426,7 @@
         <v>230</v>
       </c>
       <c r="E227" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -9362,7 +9443,7 @@
         <v>231</v>
       </c>
       <c r="E228" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -9379,7 +9460,7 @@
         <v>232</v>
       </c>
       <c r="E229" t="s">
-        <v>1067</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -9396,7 +9477,7 @@
         <v>233</v>
       </c>
       <c r="E230" t="s">
-        <v>1068</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -9413,7 +9494,7 @@
         <v>234</v>
       </c>
       <c r="E231" t="s">
-        <v>1069</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -9430,7 +9511,7 @@
         <v>235</v>
       </c>
       <c r="E232" t="s">
-        <v>1070</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -9447,7 +9528,7 @@
         <v>236</v>
       </c>
       <c r="E233" t="s">
-        <v>1071</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -9464,7 +9545,7 @@
         <v>237</v>
       </c>
       <c r="E234" t="s">
-        <v>1072</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -9481,7 +9562,7 @@
         <v>238</v>
       </c>
       <c r="E235" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -9498,7 +9579,7 @@
         <v>239</v>
       </c>
       <c r="E236" t="s">
-        <v>1074</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -9515,7 +9596,7 @@
         <v>240</v>
       </c>
       <c r="E237" t="s">
-        <v>1075</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -9532,7 +9613,7 @@
         <v>241</v>
       </c>
       <c r="E238" t="s">
-        <v>1076</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -9549,7 +9630,7 @@
         <v>242</v>
       </c>
       <c r="E239" t="s">
-        <v>1077</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -9566,7 +9647,7 @@
         <v>243</v>
       </c>
       <c r="E240" t="s">
-        <v>1078</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -9583,7 +9664,7 @@
         <v>244</v>
       </c>
       <c r="E241" t="s">
-        <v>1079</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -9600,7 +9681,7 @@
         <v>245</v>
       </c>
       <c r="E242" t="s">
-        <v>1080</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -9617,7 +9698,7 @@
         <v>246</v>
       </c>
       <c r="E243" t="s">
-        <v>1081</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -9634,7 +9715,7 @@
         <v>247</v>
       </c>
       <c r="E244" t="s">
-        <v>1081</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -9651,7 +9732,7 @@
         <v>248</v>
       </c>
       <c r="E245" t="s">
-        <v>1082</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -9668,7 +9749,7 @@
         <v>249</v>
       </c>
       <c r="E246" t="s">
-        <v>1082</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -9685,7 +9766,7 @@
         <v>250</v>
       </c>
       <c r="E247" t="s">
-        <v>1083</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -9702,7 +9783,7 @@
         <v>251</v>
       </c>
       <c r="E248" t="s">
-        <v>1084</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -9719,7 +9800,7 @@
         <v>252</v>
       </c>
       <c r="E249" t="s">
-        <v>1085</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -9736,7 +9817,7 @@
         <v>253</v>
       </c>
       <c r="E250" t="s">
-        <v>1086</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -9753,7 +9834,7 @@
         <v>254</v>
       </c>
       <c r="E251" t="s">
-        <v>1087</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -9770,7 +9851,7 @@
         <v>255</v>
       </c>
       <c r="E252" t="s">
-        <v>1088</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -9787,7 +9868,7 @@
         <v>256</v>
       </c>
       <c r="E253" t="s">
-        <v>1089</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -9804,7 +9885,7 @@
         <v>257</v>
       </c>
       <c r="E254" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -9821,7 +9902,7 @@
         <v>258</v>
       </c>
       <c r="E255" t="s">
-        <v>1091</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -9838,7 +9919,7 @@
         <v>259</v>
       </c>
       <c r="E256" t="s">
-        <v>1092</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -9855,7 +9936,7 @@
         <v>260</v>
       </c>
       <c r="E257" t="s">
-        <v>1093</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -9872,7 +9953,7 @@
         <v>261</v>
       </c>
       <c r="E258" t="s">
-        <v>1094</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -9889,7 +9970,7 @@
         <v>262</v>
       </c>
       <c r="E259" t="s">
-        <v>1095</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -9906,7 +9987,7 @@
         <v>263</v>
       </c>
       <c r="E260" t="s">
-        <v>1096</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -9923,7 +10004,7 @@
         <v>264</v>
       </c>
       <c r="E261" t="s">
-        <v>1097</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -9940,7 +10021,7 @@
         <v>265</v>
       </c>
       <c r="E262" t="s">
-        <v>1098</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -9957,7 +10038,7 @@
         <v>266</v>
       </c>
       <c r="E263" t="s">
-        <v>1099</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -9974,7 +10055,7 @@
         <v>267</v>
       </c>
       <c r="E264" t="s">
-        <v>1100</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -9991,7 +10072,7 @@
         <v>268</v>
       </c>
       <c r="E265" t="s">
-        <v>1101</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -10008,7 +10089,7 @@
         <v>269</v>
       </c>
       <c r="E266" t="s">
-        <v>1102</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -10025,7 +10106,7 @@
         <v>270</v>
       </c>
       <c r="E267" t="s">
-        <v>1103</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -10042,7 +10123,7 @@
         <v>271</v>
       </c>
       <c r="E268" t="s">
-        <v>1104</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -10059,7 +10140,7 @@
         <v>272</v>
       </c>
       <c r="E269" t="s">
-        <v>1105</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -10076,7 +10157,7 @@
         <v>273</v>
       </c>
       <c r="E270" t="s">
-        <v>1106</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -10093,7 +10174,7 @@
         <v>274</v>
       </c>
       <c r="E271" t="s">
-        <v>1107</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -10110,7 +10191,7 @@
         <v>275</v>
       </c>
       <c r="E272" t="s">
-        <v>1108</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -10127,7 +10208,7 @@
         <v>276</v>
       </c>
       <c r="E273" t="s">
-        <v>1109</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -10144,7 +10225,7 @@
         <v>277</v>
       </c>
       <c r="E274" t="s">
-        <v>1110</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -10161,7 +10242,7 @@
         <v>278</v>
       </c>
       <c r="E275" t="s">
-        <v>1111</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -10178,7 +10259,7 @@
         <v>279</v>
       </c>
       <c r="E276" t="s">
-        <v>1112</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -10195,7 +10276,7 @@
         <v>280</v>
       </c>
       <c r="E277" t="s">
-        <v>1113</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -10212,7 +10293,7 @@
         <v>281</v>
       </c>
       <c r="E278" t="s">
-        <v>1114</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -10229,7 +10310,7 @@
         <v>282</v>
       </c>
       <c r="E279" t="s">
-        <v>1115</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -10246,7 +10327,7 @@
         <v>283</v>
       </c>
       <c r="E280" t="s">
-        <v>1116</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -10263,7 +10344,7 @@
         <v>284</v>
       </c>
       <c r="E281" t="s">
-        <v>1117</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -10280,7 +10361,7 @@
         <v>285</v>
       </c>
       <c r="E282" t="s">
-        <v>1118</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -10297,7 +10378,7 @@
         <v>286</v>
       </c>
       <c r="E283" t="s">
-        <v>1119</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -10314,7 +10395,7 @@
         <v>287</v>
       </c>
       <c r="E284" t="s">
-        <v>1120</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -10331,7 +10412,7 @@
         <v>288</v>
       </c>
       <c r="E285" t="s">
-        <v>1121</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -10348,7 +10429,7 @@
         <v>289</v>
       </c>
       <c r="E286" t="s">
-        <v>1122</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -10365,7 +10446,7 @@
         <v>290</v>
       </c>
       <c r="E287" t="s">
-        <v>1123</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -10382,7 +10463,7 @@
         <v>291</v>
       </c>
       <c r="E288" t="s">
-        <v>1124</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -10399,7 +10480,7 @@
         <v>292</v>
       </c>
       <c r="E289" t="s">
-        <v>1125</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -10416,7 +10497,7 @@
         <v>293</v>
       </c>
       <c r="E290" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -10433,7 +10514,7 @@
         <v>294</v>
       </c>
       <c r="E291" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -10450,7 +10531,7 @@
         <v>295</v>
       </c>
       <c r="E292" t="s">
-        <v>1127</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -10467,7 +10548,7 @@
         <v>296</v>
       </c>
       <c r="E293" t="s">
-        <v>1128</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -10484,7 +10565,7 @@
         <v>297</v>
       </c>
       <c r="E294" t="s">
-        <v>1129</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -10501,7 +10582,7 @@
         <v>298</v>
       </c>
       <c r="E295" t="s">
-        <v>1130</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -10518,7 +10599,7 @@
         <v>299</v>
       </c>
       <c r="E296" t="s">
-        <v>1131</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -10535,7 +10616,7 @@
         <v>300</v>
       </c>
       <c r="E297" t="s">
-        <v>1132</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -10552,7 +10633,7 @@
         <v>301</v>
       </c>
       <c r="E298" t="s">
-        <v>1133</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -10569,7 +10650,7 @@
         <v>302</v>
       </c>
       <c r="E299" t="s">
-        <v>1134</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -10586,7 +10667,7 @@
         <v>303</v>
       </c>
       <c r="E300" t="s">
-        <v>1135</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -10603,7 +10684,7 @@
         <v>304</v>
       </c>
       <c r="E301" t="s">
-        <v>1136</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -10620,7 +10701,7 @@
         <v>305</v>
       </c>
       <c r="E302" t="s">
-        <v>1137</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -10637,7 +10718,7 @@
         <v>306</v>
       </c>
       <c r="E303" t="s">
-        <v>1138</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -10654,7 +10735,7 @@
         <v>307</v>
       </c>
       <c r="E304" t="s">
-        <v>1138</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -10671,7 +10752,7 @@
         <v>308</v>
       </c>
       <c r="E305" t="s">
-        <v>1139</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -10688,7 +10769,7 @@
         <v>309</v>
       </c>
       <c r="E306" t="s">
-        <v>1140</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -10705,7 +10786,7 @@
         <v>310</v>
       </c>
       <c r="E307" t="s">
-        <v>1141</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -10722,7 +10803,7 @@
         <v>311</v>
       </c>
       <c r="E308" t="s">
-        <v>1142</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -10739,7 +10820,7 @@
         <v>312</v>
       </c>
       <c r="E309" t="s">
-        <v>1143</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -10756,7 +10837,7 @@
         <v>313</v>
       </c>
       <c r="E310" t="s">
-        <v>1144</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -10773,7 +10854,7 @@
         <v>314</v>
       </c>
       <c r="E311" t="s">
-        <v>1145</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -10790,7 +10871,7 @@
         <v>315</v>
       </c>
       <c r="E312" t="s">
-        <v>1146</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -10807,7 +10888,7 @@
         <v>316</v>
       </c>
       <c r="E313" t="s">
-        <v>1147</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -10824,7 +10905,7 @@
         <v>317</v>
       </c>
       <c r="E314" t="s">
-        <v>1148</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -10841,7 +10922,7 @@
         <v>318</v>
       </c>
       <c r="E315" t="s">
-        <v>1149</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -10858,7 +10939,7 @@
         <v>319</v>
       </c>
       <c r="E316" t="s">
-        <v>1150</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -10875,7 +10956,7 @@
         <v>320</v>
       </c>
       <c r="E317" t="s">
-        <v>1151</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -10892,7 +10973,7 @@
         <v>321</v>
       </c>
       <c r="E318" t="s">
-        <v>1152</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -10909,7 +10990,7 @@
         <v>322</v>
       </c>
       <c r="E319" t="s">
-        <v>1153</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -10926,7 +11007,7 @@
         <v>323</v>
       </c>
       <c r="E320" t="s">
-        <v>1153</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -10943,7 +11024,7 @@
         <v>324</v>
       </c>
       <c r="E321" t="s">
-        <v>1154</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -10960,7 +11041,7 @@
         <v>325</v>
       </c>
       <c r="E322" t="s">
-        <v>1155</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -10977,7 +11058,7 @@
         <v>326</v>
       </c>
       <c r="E323" t="s">
-        <v>1156</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -10994,7 +11075,7 @@
         <v>327</v>
       </c>
       <c r="E324" t="s">
-        <v>1157</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -11011,7 +11092,7 @@
         <v>328</v>
       </c>
       <c r="E325" t="s">
-        <v>1158</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -11028,7 +11109,7 @@
         <v>329</v>
       </c>
       <c r="E326" t="s">
-        <v>1159</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -11045,7 +11126,7 @@
         <v>330</v>
       </c>
       <c r="E327" t="s">
-        <v>1160</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -11062,7 +11143,7 @@
         <v>331</v>
       </c>
       <c r="E328" t="s">
-        <v>1161</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -11079,7 +11160,7 @@
         <v>332</v>
       </c>
       <c r="E329" t="s">
-        <v>1162</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -11096,7 +11177,7 @@
         <v>333</v>
       </c>
       <c r="E330" t="s">
-        <v>1163</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -11113,7 +11194,7 @@
         <v>334</v>
       </c>
       <c r="E331" t="s">
-        <v>1164</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -11130,7 +11211,7 @@
         <v>335</v>
       </c>
       <c r="E332" t="s">
-        <v>1165</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -11147,7 +11228,7 @@
         <v>336</v>
       </c>
       <c r="E333" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -11164,7 +11245,7 @@
         <v>337</v>
       </c>
       <c r="E334" t="s">
-        <v>1167</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -11181,7 +11262,7 @@
         <v>338</v>
       </c>
       <c r="E335" t="s">
-        <v>1168</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -11198,7 +11279,7 @@
         <v>339</v>
       </c>
       <c r="E336" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -11215,7 +11296,7 @@
         <v>340</v>
       </c>
       <c r="E337" t="s">
-        <v>1170</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -11232,7 +11313,7 @@
         <v>341</v>
       </c>
       <c r="E338" t="s">
-        <v>1171</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -11249,7 +11330,7 @@
         <v>342</v>
       </c>
       <c r="E339" t="s">
-        <v>1172</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -11266,7 +11347,7 @@
         <v>343</v>
       </c>
       <c r="E340" t="s">
-        <v>1173</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -11283,7 +11364,7 @@
         <v>344</v>
       </c>
       <c r="E341" t="s">
-        <v>1174</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -11300,7 +11381,7 @@
         <v>345</v>
       </c>
       <c r="E342" t="s">
-        <v>1175</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -11317,7 +11398,7 @@
         <v>346</v>
       </c>
       <c r="E343" t="s">
-        <v>1176</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -11334,7 +11415,7 @@
         <v>347</v>
       </c>
       <c r="E344" t="s">
-        <v>1177</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -11351,7 +11432,7 @@
         <v>348</v>
       </c>
       <c r="E345" t="s">
-        <v>1178</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -11368,7 +11449,7 @@
         <v>349</v>
       </c>
       <c r="E346" t="s">
-        <v>1179</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -11385,7 +11466,7 @@
         <v>350</v>
       </c>
       <c r="E347" t="s">
-        <v>1180</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -11402,7 +11483,7 @@
         <v>351</v>
       </c>
       <c r="E348" t="s">
-        <v>1181</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -11419,7 +11500,7 @@
         <v>352</v>
       </c>
       <c r="E349" t="s">
-        <v>1182</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -11436,7 +11517,7 @@
         <v>353</v>
       </c>
       <c r="E350" t="s">
-        <v>1183</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -11453,7 +11534,7 @@
         <v>354</v>
       </c>
       <c r="E351" t="s">
-        <v>1184</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -11470,7 +11551,7 @@
         <v>355</v>
       </c>
       <c r="E352" t="s">
-        <v>1185</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -11487,7 +11568,7 @@
         <v>356</v>
       </c>
       <c r="E353" t="s">
-        <v>1186</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -11504,7 +11585,7 @@
         <v>357</v>
       </c>
       <c r="E354" t="s">
-        <v>1187</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -11521,7 +11602,7 @@
         <v>358</v>
       </c>
       <c r="E355" t="s">
-        <v>1188</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -11538,7 +11619,7 @@
         <v>359</v>
       </c>
       <c r="E356" t="s">
-        <v>1189</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -11555,7 +11636,7 @@
         <v>360</v>
       </c>
       <c r="E357" t="s">
-        <v>1190</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -11572,7 +11653,7 @@
         <v>361</v>
       </c>
       <c r="E358" t="s">
-        <v>1191</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -11589,7 +11670,7 @@
         <v>362</v>
       </c>
       <c r="E359" t="s">
-        <v>1192</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -11606,7 +11687,7 @@
         <v>363</v>
       </c>
       <c r="E360" t="s">
-        <v>1193</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -11623,7 +11704,7 @@
         <v>364</v>
       </c>
       <c r="E361" t="s">
-        <v>1194</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -11640,7 +11721,7 @@
         <v>365</v>
       </c>
       <c r="E362" t="s">
-        <v>1195</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -11657,7 +11738,7 @@
         <v>366</v>
       </c>
       <c r="E363" t="s">
-        <v>1196</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -11674,7 +11755,7 @@
         <v>367</v>
       </c>
       <c r="E364" t="s">
-        <v>1197</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -11691,7 +11772,7 @@
         <v>368</v>
       </c>
       <c r="E365" t="s">
-        <v>1198</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -11708,7 +11789,7 @@
         <v>369</v>
       </c>
       <c r="E366" t="s">
-        <v>1199</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -11725,7 +11806,7 @@
         <v>370</v>
       </c>
       <c r="E367" t="s">
-        <v>1200</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -11742,7 +11823,7 @@
         <v>371</v>
       </c>
       <c r="E368" t="s">
-        <v>1201</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -11759,7 +11840,7 @@
         <v>372</v>
       </c>
       <c r="E369" t="s">
-        <v>1202</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -11776,7 +11857,7 @@
         <v>373</v>
       </c>
       <c r="E370" t="s">
-        <v>1203</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -11793,7 +11874,7 @@
         <v>374</v>
       </c>
       <c r="E371" t="s">
-        <v>1204</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -11810,7 +11891,7 @@
         <v>375</v>
       </c>
       <c r="E372" t="s">
-        <v>1205</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -11827,7 +11908,7 @@
         <v>376</v>
       </c>
       <c r="E373" t="s">
-        <v>1206</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -11844,7 +11925,7 @@
         <v>377</v>
       </c>
       <c r="E374" t="s">
-        <v>1207</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -11861,7 +11942,7 @@
         <v>378</v>
       </c>
       <c r="E375" t="s">
-        <v>1208</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -11878,7 +11959,7 @@
         <v>379</v>
       </c>
       <c r="E376" t="s">
-        <v>1209</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -11895,7 +11976,7 @@
         <v>380</v>
       </c>
       <c r="E377" t="s">
-        <v>1210</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -11912,7 +11993,7 @@
         <v>381</v>
       </c>
       <c r="E378" t="s">
-        <v>1211</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -11929,7 +12010,7 @@
         <v>382</v>
       </c>
       <c r="E379" t="s">
-        <v>1212</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -11946,7 +12027,7 @@
         <v>383</v>
       </c>
       <c r="E380" t="s">
-        <v>1213</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -11963,7 +12044,7 @@
         <v>384</v>
       </c>
       <c r="E381" t="s">
-        <v>1214</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -11980,7 +12061,7 @@
         <v>385</v>
       </c>
       <c r="E382" t="s">
-        <v>1215</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -11997,7 +12078,7 @@
         <v>386</v>
       </c>
       <c r="E383" t="s">
-        <v>1216</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -12014,7 +12095,7 @@
         <v>387</v>
       </c>
       <c r="E384" t="s">
-        <v>1217</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -12031,7 +12112,7 @@
         <v>388</v>
       </c>
       <c r="E385" t="s">
-        <v>1218</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -12048,7 +12129,7 @@
         <v>389</v>
       </c>
       <c r="E386" t="s">
-        <v>1219</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -12065,7 +12146,7 @@
         <v>390</v>
       </c>
       <c r="E387" t="s">
-        <v>1220</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -12082,7 +12163,7 @@
         <v>391</v>
       </c>
       <c r="E388" t="s">
-        <v>1221</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -12099,7 +12180,7 @@
         <v>392</v>
       </c>
       <c r="E389" t="s">
-        <v>1222</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -12116,7 +12197,7 @@
         <v>393</v>
       </c>
       <c r="E390" t="s">
-        <v>1223</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -12133,7 +12214,7 @@
         <v>394</v>
       </c>
       <c r="E391" t="s">
-        <v>1224</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -12150,7 +12231,7 @@
         <v>395</v>
       </c>
       <c r="E392" t="s">
-        <v>1225</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -12167,7 +12248,7 @@
         <v>396</v>
       </c>
       <c r="E393" t="s">
-        <v>1226</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -12184,7 +12265,7 @@
         <v>397</v>
       </c>
       <c r="E394" t="s">
-        <v>1227</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -12201,7 +12282,7 @@
         <v>398</v>
       </c>
       <c r="E395" t="s">
-        <v>1228</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -12218,7 +12299,7 @@
         <v>399</v>
       </c>
       <c r="E396" t="s">
-        <v>1229</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -12235,7 +12316,7 @@
         <v>400</v>
       </c>
       <c r="E397" t="s">
-        <v>1230</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -12252,7 +12333,7 @@
         <v>401</v>
       </c>
       <c r="E398" t="s">
-        <v>1231</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -12269,7 +12350,7 @@
         <v>402</v>
       </c>
       <c r="E399" t="s">
-        <v>1232</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -12286,7 +12367,7 @@
         <v>403</v>
       </c>
       <c r="E400" t="s">
-        <v>1233</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -12303,7 +12384,7 @@
         <v>404</v>
       </c>
       <c r="E401" t="s">
-        <v>1234</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -12320,7 +12401,7 @@
         <v>405</v>
       </c>
       <c r="E402" t="s">
-        <v>1235</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -12337,7 +12418,7 @@
         <v>406</v>
       </c>
       <c r="E403" t="s">
-        <v>1236</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -12354,7 +12435,7 @@
         <v>407</v>
       </c>
       <c r="E404" t="s">
-        <v>1237</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -12371,7 +12452,7 @@
         <v>408</v>
       </c>
       <c r="E405" t="s">
-        <v>1238</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -12388,7 +12469,7 @@
         <v>409</v>
       </c>
       <c r="E406" t="s">
-        <v>1239</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -12405,7 +12486,7 @@
         <v>410</v>
       </c>
       <c r="E407" t="s">
-        <v>1240</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -12422,7 +12503,7 @@
         <v>411</v>
       </c>
       <c r="E408" t="s">
-        <v>1241</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -12439,7 +12520,7 @@
         <v>412</v>
       </c>
       <c r="E409" t="s">
-        <v>1242</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -12456,7 +12537,7 @@
         <v>413</v>
       </c>
       <c r="E410" t="s">
-        <v>1243</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -12473,7 +12554,7 @@
         <v>414</v>
       </c>
       <c r="E411" t="s">
-        <v>1244</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -12490,7 +12571,7 @@
         <v>415</v>
       </c>
       <c r="E412" t="s">
-        <v>1245</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -12507,7 +12588,7 @@
         <v>416</v>
       </c>
       <c r="E413" t="s">
-        <v>1246</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -12524,7 +12605,7 @@
         <v>417</v>
       </c>
       <c r="E414" t="s">
-        <v>1247</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -12541,7 +12622,7 @@
         <v>418</v>
       </c>
       <c r="E415" t="s">
-        <v>1248</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -12558,7 +12639,7 @@
         <v>419</v>
       </c>
       <c r="E416" t="s">
-        <v>1249</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -12575,7 +12656,7 @@
         <v>420</v>
       </c>
       <c r="E417" t="s">
-        <v>1250</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -12592,7 +12673,7 @@
         <v>421</v>
       </c>
       <c r="E418" t="s">
-        <v>1251</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -12609,7 +12690,7 @@
         <v>422</v>
       </c>
       <c r="E419" t="s">
-        <v>1252</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -12626,7 +12707,7 @@
         <v>423</v>
       </c>
       <c r="E420" t="s">
-        <v>1253</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -12643,7 +12724,7 @@
         <v>424</v>
       </c>
       <c r="E421" t="s">
-        <v>1254</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -12660,7 +12741,7 @@
         <v>425</v>
       </c>
       <c r="E422" t="s">
-        <v>1255</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -12677,7 +12758,7 @@
         <v>426</v>
       </c>
       <c r="E423" t="s">
-        <v>1256</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -12694,7 +12775,7 @@
         <v>427</v>
       </c>
       <c r="E424" t="s">
-        <v>1256</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -12711,7 +12792,7 @@
         <v>428</v>
       </c>
       <c r="E425" t="s">
-        <v>1257</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -12728,7 +12809,7 @@
         <v>429</v>
       </c>
       <c r="E426" t="s">
-        <v>1258</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -12745,7 +12826,7 @@
         <v>430</v>
       </c>
       <c r="E427" t="s">
-        <v>1259</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -12762,7 +12843,7 @@
         <v>431</v>
       </c>
       <c r="E428" t="s">
-        <v>1260</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -12779,7 +12860,7 @@
         <v>432</v>
       </c>
       <c r="E429" t="s">
-        <v>1261</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -12796,7 +12877,7 @@
         <v>433</v>
       </c>
       <c r="E430" t="s">
-        <v>1261</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -12813,7 +12894,7 @@
         <v>434</v>
       </c>
       <c r="E431" t="s">
-        <v>1262</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -12830,7 +12911,7 @@
         <v>435</v>
       </c>
       <c r="E432" t="s">
-        <v>1263</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -12847,7 +12928,7 @@
         <v>436</v>
       </c>
       <c r="E433" t="s">
-        <v>1261</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -12864,7 +12945,7 @@
         <v>437</v>
       </c>
       <c r="E434" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -12881,7 +12962,7 @@
         <v>438</v>
       </c>
       <c r="E435" t="s">
-        <v>1263</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -12898,7 +12979,7 @@
         <v>439</v>
       </c>
       <c r="E436" t="s">
-        <v>1262</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -12915,7 +12996,7 @@
         <v>440</v>
       </c>
       <c r="E437" t="s">
-        <v>1265</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -12932,7 +13013,7 @@
         <v>441</v>
       </c>
       <c r="E438" t="s">
-        <v>1266</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -12949,7 +13030,7 @@
         <v>442</v>
       </c>
       <c r="E439" t="s">
-        <v>1267</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -12966,7 +13047,7 @@
         <v>443</v>
       </c>
       <c r="E440" t="s">
-        <v>1268</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -12983,7 +13064,7 @@
         <v>444</v>
       </c>
       <c r="E441" t="s">
-        <v>1269</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -13000,7 +13081,7 @@
         <v>445</v>
       </c>
       <c r="E442" t="s">
-        <v>1270</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -13017,7 +13098,7 @@
         <v>446</v>
       </c>
       <c r="E443" t="s">
-        <v>1271</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -13034,7 +13115,7 @@
         <v>447</v>
       </c>
       <c r="E444" t="s">
-        <v>1272</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -13051,7 +13132,7 @@
         <v>448</v>
       </c>
       <c r="E445" t="s">
-        <v>1273</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -13068,7 +13149,7 @@
         <v>449</v>
       </c>
       <c r="E446" t="s">
-        <v>1274</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -13085,7 +13166,7 @@
         <v>450</v>
       </c>
       <c r="E447" t="s">
-        <v>1275</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -13102,7 +13183,7 @@
         <v>451</v>
       </c>
       <c r="E448" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -13119,7 +13200,7 @@
         <v>452</v>
       </c>
       <c r="E449" t="s">
-        <v>1277</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -13136,7 +13217,7 @@
         <v>453</v>
       </c>
       <c r="E450" t="s">
-        <v>1278</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -13153,7 +13234,7 @@
         <v>454</v>
       </c>
       <c r="E451" t="s">
-        <v>1279</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -13170,7 +13251,7 @@
         <v>455</v>
       </c>
       <c r="E452" t="s">
-        <v>1280</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -13187,7 +13268,7 @@
         <v>456</v>
       </c>
       <c r="E453" t="s">
-        <v>1281</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -13204,7 +13285,7 @@
         <v>457</v>
       </c>
       <c r="E454" t="s">
-        <v>1282</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -13221,7 +13302,7 @@
         <v>458</v>
       </c>
       <c r="E455" t="s">
-        <v>1283</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -13238,7 +13319,7 @@
         <v>459</v>
       </c>
       <c r="E456" t="s">
-        <v>1284</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -13255,7 +13336,7 @@
         <v>460</v>
       </c>
       <c r="E457" t="s">
-        <v>1285</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -13272,7 +13353,7 @@
         <v>461</v>
       </c>
       <c r="E458" t="s">
-        <v>1286</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -13289,7 +13370,7 @@
         <v>462</v>
       </c>
       <c r="E459" t="s">
-        <v>1287</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -13306,7 +13387,7 @@
         <v>463</v>
       </c>
       <c r="E460" t="s">
-        <v>1288</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -13323,7 +13404,7 @@
         <v>464</v>
       </c>
       <c r="E461" t="s">
-        <v>1289</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -13340,7 +13421,7 @@
         <v>465</v>
       </c>
       <c r="E462" t="s">
-        <v>1290</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -13357,7 +13438,7 @@
         <v>466</v>
       </c>
       <c r="E463" t="s">
-        <v>1291</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -13374,7 +13455,7 @@
         <v>467</v>
       </c>
       <c r="E464" t="s">
-        <v>1292</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -13391,7 +13472,7 @@
         <v>468</v>
       </c>
       <c r="E465" t="s">
-        <v>1293</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -13408,7 +13489,7 @@
         <v>469</v>
       </c>
       <c r="E466" t="s">
-        <v>1294</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -13425,7 +13506,7 @@
         <v>470</v>
       </c>
       <c r="E467" t="s">
-        <v>1295</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -13442,7 +13523,7 @@
         <v>471</v>
       </c>
       <c r="E468" t="s">
-        <v>1296</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -13459,7 +13540,7 @@
         <v>472</v>
       </c>
       <c r="E469" t="s">
-        <v>1297</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -13476,7 +13557,7 @@
         <v>473</v>
       </c>
       <c r="E470" t="s">
-        <v>1298</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -13493,7 +13574,7 @@
         <v>474</v>
       </c>
       <c r="E471" t="s">
-        <v>1299</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -13510,7 +13591,7 @@
         <v>475</v>
       </c>
       <c r="E472" t="s">
-        <v>1300</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -13527,7 +13608,7 @@
         <v>476</v>
       </c>
       <c r="E473" t="s">
-        <v>1301</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -13544,7 +13625,7 @@
         <v>477</v>
       </c>
       <c r="E474" t="s">
-        <v>1296</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -13561,7 +13642,7 @@
         <v>478</v>
       </c>
       <c r="E475" t="s">
-        <v>1302</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -13578,7 +13659,7 @@
         <v>479</v>
       </c>
       <c r="E476" t="s">
-        <v>1297</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -13595,7 +13676,7 @@
         <v>480</v>
       </c>
       <c r="E477" t="s">
-        <v>1303</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -13612,7 +13693,7 @@
         <v>481</v>
       </c>
       <c r="E478" t="s">
-        <v>1304</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -13629,7 +13710,7 @@
         <v>482</v>
       </c>
       <c r="E479" t="s">
-        <v>1305</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -13646,7 +13727,7 @@
         <v>483</v>
       </c>
       <c r="E480" t="s">
-        <v>1306</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -13663,7 +13744,7 @@
         <v>484</v>
       </c>
       <c r="E481" t="s">
-        <v>1307</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -13680,7 +13761,7 @@
         <v>485</v>
       </c>
       <c r="E482" t="s">
-        <v>1308</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -13697,7 +13778,7 @@
         <v>486</v>
       </c>
       <c r="E483" t="s">
-        <v>1309</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -13714,7 +13795,7 @@
         <v>487</v>
       </c>
       <c r="E484" t="s">
-        <v>1310</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -13731,7 +13812,7 @@
         <v>488</v>
       </c>
       <c r="E485" t="s">
-        <v>1311</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -13748,7 +13829,7 @@
         <v>489</v>
       </c>
       <c r="E486" t="s">
-        <v>1312</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -13765,7 +13846,7 @@
         <v>490</v>
       </c>
       <c r="E487" t="s">
-        <v>1313</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -13782,7 +13863,7 @@
         <v>491</v>
       </c>
       <c r="E488" t="s">
-        <v>1314</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -13799,7 +13880,7 @@
         <v>492</v>
       </c>
       <c r="E489" t="s">
-        <v>1315</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -13816,7 +13897,7 @@
         <v>493</v>
       </c>
       <c r="E490" t="s">
-        <v>1316</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -13833,7 +13914,7 @@
         <v>494</v>
       </c>
       <c r="E491" t="s">
-        <v>1317</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -13850,7 +13931,7 @@
         <v>495</v>
       </c>
       <c r="E492" t="s">
-        <v>1318</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -13867,7 +13948,7 @@
         <v>496</v>
       </c>
       <c r="E493" t="s">
-        <v>1319</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -13884,7 +13965,7 @@
         <v>497</v>
       </c>
       <c r="E494" t="s">
-        <v>1320</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -13901,7 +13982,7 @@
         <v>498</v>
       </c>
       <c r="E495" t="s">
-        <v>1321</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -13918,7 +13999,7 @@
         <v>499</v>
       </c>
       <c r="E496" t="s">
-        <v>1322</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -13935,7 +14016,7 @@
         <v>500</v>
       </c>
       <c r="E497" t="s">
-        <v>1323</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -13952,7 +14033,7 @@
         <v>501</v>
       </c>
       <c r="E498" t="s">
-        <v>1324</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -13969,7 +14050,7 @@
         <v>502</v>
       </c>
       <c r="E499" t="s">
-        <v>1325</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -13986,7 +14067,7 @@
         <v>503</v>
       </c>
       <c r="E500" t="s">
-        <v>1326</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -14003,7 +14084,7 @@
         <v>504</v>
       </c>
       <c r="E501" t="s">
-        <v>1327</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -14020,7 +14101,7 @@
         <v>505</v>
       </c>
       <c r="E502" t="s">
-        <v>1328</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -14037,7 +14118,7 @@
         <v>506</v>
       </c>
       <c r="E503" t="s">
-        <v>1329</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -14054,7 +14135,7 @@
         <v>507</v>
       </c>
       <c r="E504" t="s">
-        <v>1330</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -14071,7 +14152,7 @@
         <v>508</v>
       </c>
       <c r="E505" t="s">
-        <v>1331</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -14088,7 +14169,7 @@
         <v>509</v>
       </c>
       <c r="E506" t="s">
-        <v>1332</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -14105,7 +14186,7 @@
         <v>510</v>
       </c>
       <c r="E507" t="s">
-        <v>1333</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -14122,7 +14203,7 @@
         <v>511</v>
       </c>
       <c r="E508" t="s">
-        <v>1334</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -14139,7 +14220,7 @@
         <v>512</v>
       </c>
       <c r="E509" t="s">
-        <v>1335</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -14156,7 +14237,7 @@
         <v>513</v>
       </c>
       <c r="E510" t="s">
-        <v>1336</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -14173,7 +14254,7 @@
         <v>514</v>
       </c>
       <c r="E511" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -14190,7 +14271,7 @@
         <v>515</v>
       </c>
       <c r="E512" t="s">
-        <v>1338</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -14207,7 +14288,7 @@
         <v>516</v>
       </c>
       <c r="E513" t="s">
-        <v>1338</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -14224,7 +14305,7 @@
         <v>517</v>
       </c>
       <c r="E514" t="s">
-        <v>1339</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -14241,7 +14322,7 @@
         <v>518</v>
       </c>
       <c r="E515" t="s">
-        <v>1340</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -14258,7 +14339,7 @@
         <v>519</v>
       </c>
       <c r="E516" t="s">
-        <v>1341</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -14275,7 +14356,7 @@
         <v>520</v>
       </c>
       <c r="E517" t="s">
-        <v>1342</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -14292,7 +14373,7 @@
         <v>521</v>
       </c>
       <c r="E518" t="s">
-        <v>1343</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -14309,7 +14390,7 @@
         <v>522</v>
       </c>
       <c r="E519" t="s">
-        <v>1344</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -14326,7 +14407,7 @@
         <v>523</v>
       </c>
       <c r="E520" t="s">
-        <v>1345</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -14343,7 +14424,7 @@
         <v>524</v>
       </c>
       <c r="E521" t="s">
-        <v>1346</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -14360,7 +14441,7 @@
         <v>525</v>
       </c>
       <c r="E522" t="s">
-        <v>1347</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -14377,7 +14458,7 @@
         <v>526</v>
       </c>
       <c r="E523" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -14394,7 +14475,7 @@
         <v>527</v>
       </c>
       <c r="E524" t="s">
-        <v>1349</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -14411,7 +14492,7 @@
         <v>528</v>
       </c>
       <c r="E525" t="s">
-        <v>1350</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -14428,7 +14509,7 @@
         <v>529</v>
       </c>
       <c r="E526" t="s">
-        <v>1351</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -14445,7 +14526,7 @@
         <v>530</v>
       </c>
       <c r="E527" t="s">
-        <v>1352</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -14462,7 +14543,7 @@
         <v>531</v>
       </c>
       <c r="E528" t="s">
-        <v>1353</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -14479,7 +14560,7 @@
         <v>532</v>
       </c>
       <c r="E529" t="s">
-        <v>1354</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -14496,7 +14577,7 @@
         <v>533</v>
       </c>
       <c r="E530" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -14513,7 +14594,7 @@
         <v>534</v>
       </c>
       <c r="E531" t="s">
-        <v>1356</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -14530,7 +14611,7 @@
         <v>535</v>
       </c>
       <c r="E532" t="s">
-        <v>1356</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -14547,7 +14628,7 @@
         <v>536</v>
       </c>
       <c r="E533" t="s">
-        <v>1357</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -14564,7 +14645,7 @@
         <v>537</v>
       </c>
       <c r="E534" t="s">
-        <v>1358</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -14581,7 +14662,7 @@
         <v>538</v>
       </c>
       <c r="E535" t="s">
-        <v>1359</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -14598,7 +14679,7 @@
         <v>539</v>
       </c>
       <c r="E536" t="s">
-        <v>1360</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -14615,7 +14696,7 @@
         <v>540</v>
       </c>
       <c r="E537" t="s">
-        <v>1361</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -14632,7 +14713,7 @@
         <v>541</v>
       </c>
       <c r="E538" t="s">
-        <v>1362</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -14649,7 +14730,7 @@
         <v>542</v>
       </c>
       <c r="E539" t="s">
-        <v>1363</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -14666,7 +14747,7 @@
         <v>543</v>
       </c>
       <c r="E540" t="s">
-        <v>1364</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -14683,7 +14764,7 @@
         <v>544</v>
       </c>
       <c r="E541" t="s">
-        <v>1365</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -14700,7 +14781,7 @@
         <v>545</v>
       </c>
       <c r="E542" t="s">
-        <v>1366</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -14717,7 +14798,7 @@
         <v>546</v>
       </c>
       <c r="E543" t="s">
-        <v>1367</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -14734,7 +14815,7 @@
         <v>547</v>
       </c>
       <c r="E544" t="s">
-        <v>1368</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -14751,7 +14832,7 @@
         <v>548</v>
       </c>
       <c r="E545" t="s">
-        <v>1369</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -14768,7 +14849,7 @@
         <v>549</v>
       </c>
       <c r="E546" t="s">
-        <v>1370</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -14785,7 +14866,7 @@
         <v>550</v>
       </c>
       <c r="E547" t="s">
-        <v>1371</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -14802,7 +14883,7 @@
         <v>551</v>
       </c>
       <c r="E548" t="s">
-        <v>1372</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -14819,7 +14900,7 @@
         <v>552</v>
       </c>
       <c r="E549" t="s">
-        <v>1373</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -14836,7 +14917,7 @@
         <v>553</v>
       </c>
       <c r="E550" t="s">
-        <v>1374</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -14853,7 +14934,7 @@
         <v>554</v>
       </c>
       <c r="E551" t="s">
-        <v>1375</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -14870,7 +14951,7 @@
         <v>555</v>
       </c>
       <c r="E552" t="s">
-        <v>1376</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -14887,7 +14968,7 @@
         <v>556</v>
       </c>
       <c r="E553" t="s">
-        <v>1377</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -14904,7 +14985,7 @@
         <v>557</v>
       </c>
       <c r="E554" t="s">
-        <v>1378</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -14921,7 +15002,7 @@
         <v>558</v>
       </c>
       <c r="E555" t="s">
-        <v>1379</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -14938,7 +15019,7 @@
         <v>559</v>
       </c>
       <c r="E556" t="s">
-        <v>1380</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -14955,7 +15036,7 @@
         <v>560</v>
       </c>
       <c r="E557" t="s">
-        <v>1381</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -14972,7 +15053,7 @@
         <v>561</v>
       </c>
       <c r="E558" t="s">
-        <v>1382</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -14989,7 +15070,7 @@
         <v>562</v>
       </c>
       <c r="E559" t="s">
-        <v>1383</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -15006,7 +15087,7 @@
         <v>563</v>
       </c>
       <c r="E560" t="s">
-        <v>1384</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -15023,7 +15104,7 @@
         <v>564</v>
       </c>
       <c r="E561" t="s">
-        <v>1385</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -15040,7 +15121,7 @@
         <v>565</v>
       </c>
       <c r="E562" t="s">
-        <v>1386</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -15057,7 +15138,7 @@
         <v>566</v>
       </c>
       <c r="E563" t="s">
-        <v>1387</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -15074,7 +15155,7 @@
         <v>567</v>
       </c>
       <c r="E564" t="s">
-        <v>1388</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -15091,7 +15172,7 @@
         <v>568</v>
       </c>
       <c r="E565" t="s">
-        <v>1389</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -15108,7 +15189,7 @@
         <v>569</v>
       </c>
       <c r="E566" t="s">
-        <v>1389</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -15125,7 +15206,7 @@
         <v>570</v>
       </c>
       <c r="E567" t="s">
-        <v>1390</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -15142,7 +15223,7 @@
         <v>571</v>
       </c>
       <c r="E568" t="s">
-        <v>1391</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -15159,7 +15240,7 @@
         <v>572</v>
       </c>
       <c r="E569" t="s">
-        <v>1392</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -15176,7 +15257,7 @@
         <v>573</v>
       </c>
       <c r="E570" t="s">
-        <v>1393</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -15193,7 +15274,7 @@
         <v>574</v>
       </c>
       <c r="E571" t="s">
-        <v>1394</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -15210,7 +15291,7 @@
         <v>575</v>
       </c>
       <c r="E572" t="s">
-        <v>1395</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -15227,7 +15308,7 @@
         <v>576</v>
       </c>
       <c r="E573" t="s">
-        <v>1396</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -15244,7 +15325,7 @@
         <v>577</v>
       </c>
       <c r="E574" t="s">
-        <v>1397</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -15261,7 +15342,7 @@
         <v>578</v>
       </c>
       <c r="E575" t="s">
-        <v>1398</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -15278,7 +15359,7 @@
         <v>579</v>
       </c>
       <c r="E576" t="s">
-        <v>1399</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -15295,7 +15376,7 @@
         <v>580</v>
       </c>
       <c r="E577" t="s">
-        <v>1400</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -15312,7 +15393,7 @@
         <v>581</v>
       </c>
       <c r="E578" t="s">
-        <v>1401</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -15329,7 +15410,7 @@
         <v>582</v>
       </c>
       <c r="E579" t="s">
-        <v>1402</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -15346,7 +15427,7 @@
         <v>583</v>
       </c>
       <c r="E580" t="s">
-        <v>1403</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -15363,7 +15444,7 @@
         <v>584</v>
       </c>
       <c r="E581" t="s">
-        <v>1404</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -15380,7 +15461,7 @@
         <v>585</v>
       </c>
       <c r="E582" t="s">
-        <v>1405</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -15397,7 +15478,7 @@
         <v>586</v>
       </c>
       <c r="E583" t="s">
-        <v>1406</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -15414,7 +15495,7 @@
         <v>587</v>
       </c>
       <c r="E584" t="s">
-        <v>1407</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -15431,7 +15512,7 @@
         <v>588</v>
       </c>
       <c r="E585" t="s">
-        <v>1408</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -15448,7 +15529,7 @@
         <v>589</v>
       </c>
       <c r="E586" t="s">
-        <v>1409</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -15465,7 +15546,7 @@
         <v>590</v>
       </c>
       <c r="E587" t="s">
-        <v>1410</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -15482,7 +15563,7 @@
         <v>591</v>
       </c>
       <c r="E588" t="s">
-        <v>1411</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -15499,7 +15580,7 @@
         <v>592</v>
       </c>
       <c r="E589" t="s">
-        <v>1412</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -15516,7 +15597,7 @@
         <v>593</v>
       </c>
       <c r="E590" t="s">
-        <v>1413</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -15533,7 +15614,7 @@
         <v>594</v>
       </c>
       <c r="E591" t="s">
-        <v>1414</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -15550,7 +15631,7 @@
         <v>595</v>
       </c>
       <c r="E592" t="s">
-        <v>1415</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -15567,7 +15648,7 @@
         <v>596</v>
       </c>
       <c r="E593" t="s">
-        <v>1416</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -15584,7 +15665,7 @@
         <v>597</v>
       </c>
       <c r="E594" t="s">
-        <v>1417</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -15601,7 +15682,7 @@
         <v>598</v>
       </c>
       <c r="E595" t="s">
-        <v>1418</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -15618,7 +15699,7 @@
         <v>599</v>
       </c>
       <c r="E596" t="s">
-        <v>1419</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -15635,7 +15716,7 @@
         <v>600</v>
       </c>
       <c r="E597" t="s">
-        <v>1420</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="598" spans="1:5">
@@ -15652,7 +15733,7 @@
         <v>601</v>
       </c>
       <c r="E598" t="s">
-        <v>1421</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="599" spans="1:5">
@@ -15669,7 +15750,7 @@
         <v>602</v>
       </c>
       <c r="E599" t="s">
-        <v>1422</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -15686,7 +15767,7 @@
         <v>603</v>
       </c>
       <c r="E600" t="s">
-        <v>1423</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -15703,7 +15784,7 @@
         <v>604</v>
       </c>
       <c r="E601" t="s">
-        <v>1424</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -15720,7 +15801,7 @@
         <v>605</v>
       </c>
       <c r="E602" t="s">
-        <v>1425</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -15737,7 +15818,7 @@
         <v>606</v>
       </c>
       <c r="E603" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -15754,7 +15835,7 @@
         <v>607</v>
       </c>
       <c r="E604" t="s">
-        <v>1427</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -15771,7 +15852,7 @@
         <v>608</v>
       </c>
       <c r="E605" t="s">
-        <v>1428</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -15788,7 +15869,7 @@
         <v>609</v>
       </c>
       <c r="E606" t="s">
-        <v>1428</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="607" spans="1:5">
@@ -15805,7 +15886,7 @@
         <v>610</v>
       </c>
       <c r="E607" t="s">
-        <v>1429</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="608" spans="1:5">
@@ -15822,7 +15903,7 @@
         <v>611</v>
       </c>
       <c r="E608" t="s">
-        <v>1430</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="609" spans="1:5">
@@ -15839,7 +15920,7 @@
         <v>612</v>
       </c>
       <c r="E609" t="s">
-        <v>1431</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="610" spans="1:5">
@@ -15856,7 +15937,7 @@
         <v>613</v>
       </c>
       <c r="E610" t="s">
-        <v>1432</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="611" spans="1:5">
@@ -15873,7 +15954,7 @@
         <v>614</v>
       </c>
       <c r="E611" t="s">
-        <v>1433</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="612" spans="1:5">
@@ -15890,7 +15971,7 @@
         <v>615</v>
       </c>
       <c r="E612" t="s">
-        <v>1434</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="613" spans="1:5">
@@ -15907,7 +15988,7 @@
         <v>616</v>
       </c>
       <c r="E613" t="s">
-        <v>1435</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="614" spans="1:5">
@@ -15924,7 +16005,7 @@
         <v>617</v>
       </c>
       <c r="E614" t="s">
-        <v>1436</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="615" spans="1:5">
@@ -15941,7 +16022,7 @@
         <v>618</v>
       </c>
       <c r="E615" t="s">
-        <v>1436</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -15958,7 +16039,7 @@
         <v>619</v>
       </c>
       <c r="E616" t="s">
-        <v>1436</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="617" spans="1:5">
@@ -15975,7 +16056,7 @@
         <v>620</v>
       </c>
       <c r="E617" t="s">
-        <v>1437</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -15992,7 +16073,7 @@
         <v>621</v>
       </c>
       <c r="E618" t="s">
-        <v>1438</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -16009,7 +16090,7 @@
         <v>622</v>
       </c>
       <c r="E619" t="s">
-        <v>1439</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -16026,7 +16107,7 @@
         <v>623</v>
       </c>
       <c r="E620" t="s">
-        <v>1440</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="621" spans="1:5">
@@ -16043,7 +16124,7 @@
         <v>624</v>
       </c>
       <c r="E621" t="s">
-        <v>1441</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="622" spans="1:5">
@@ -16060,7 +16141,7 @@
         <v>625</v>
       </c>
       <c r="E622" t="s">
-        <v>1442</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="623" spans="1:5">
@@ -16077,7 +16158,7 @@
         <v>626</v>
       </c>
       <c r="E623" t="s">
-        <v>1443</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="624" spans="1:5">
@@ -16094,7 +16175,7 @@
         <v>627</v>
       </c>
       <c r="E624" t="s">
-        <v>1444</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="625" spans="1:5">
@@ -16111,7 +16192,7 @@
         <v>628</v>
       </c>
       <c r="E625" t="s">
-        <v>1445</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="626" spans="1:5">
@@ -16128,7 +16209,7 @@
         <v>629</v>
       </c>
       <c r="E626" t="s">
-        <v>1446</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="627" spans="1:5">
@@ -16145,7 +16226,7 @@
         <v>630</v>
       </c>
       <c r="E627" t="s">
-        <v>1446</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="628" spans="1:5">
@@ -16162,7 +16243,7 @@
         <v>631</v>
       </c>
       <c r="E628" t="s">
-        <v>1447</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -16179,7 +16260,7 @@
         <v>632</v>
       </c>
       <c r="E629" t="s">
-        <v>1448</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="630" spans="1:5">
@@ -16196,7 +16277,7 @@
         <v>633</v>
       </c>
       <c r="E630" t="s">
-        <v>1449</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="631" spans="1:5">
@@ -16213,7 +16294,7 @@
         <v>634</v>
       </c>
       <c r="E631" t="s">
-        <v>1449</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -16230,7 +16311,7 @@
         <v>635</v>
       </c>
       <c r="E632" t="s">
-        <v>1450</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="633" spans="1:5">
@@ -16247,7 +16328,7 @@
         <v>636</v>
       </c>
       <c r="E633" t="s">
-        <v>1451</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -16264,7 +16345,7 @@
         <v>637</v>
       </c>
       <c r="E634" t="s">
-        <v>1452</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="635" spans="1:5">
@@ -16281,7 +16362,7 @@
         <v>638</v>
       </c>
       <c r="E635" t="s">
-        <v>1453</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="636" spans="1:5">
@@ -16298,7 +16379,7 @@
         <v>639</v>
       </c>
       <c r="E636" t="s">
-        <v>1454</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="637" spans="1:5">
@@ -16315,7 +16396,7 @@
         <v>640</v>
       </c>
       <c r="E637" t="s">
-        <v>1455</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="638" spans="1:5">
@@ -16332,7 +16413,7 @@
         <v>641</v>
       </c>
       <c r="E638" t="s">
-        <v>1456</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -16349,7 +16430,7 @@
         <v>642</v>
       </c>
       <c r="E639" t="s">
-        <v>1457</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="640" spans="1:5">
@@ -16366,7 +16447,7 @@
         <v>643</v>
       </c>
       <c r="E640" t="s">
-        <v>1458</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="641" spans="1:5">
@@ -16383,7 +16464,7 @@
         <v>644</v>
       </c>
       <c r="E641" t="s">
-        <v>1459</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="642" spans="1:5">
@@ -16400,7 +16481,7 @@
         <v>645</v>
       </c>
       <c r="E642" t="s">
-        <v>1460</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="643" spans="1:5">
@@ -16417,7 +16498,7 @@
         <v>646</v>
       </c>
       <c r="E643" t="s">
-        <v>1461</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="644" spans="1:5">
@@ -16434,7 +16515,7 @@
         <v>647</v>
       </c>
       <c r="E644" t="s">
-        <v>1462</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="645" spans="1:5">
@@ -16451,7 +16532,7 @@
         <v>648</v>
       </c>
       <c r="E645" t="s">
-        <v>1462</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -16468,7 +16549,7 @@
         <v>649</v>
       </c>
       <c r="E646" t="s">
-        <v>1463</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="647" spans="1:5">
@@ -16485,7 +16566,7 @@
         <v>650</v>
       </c>
       <c r="E647" t="s">
-        <v>1464</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -16502,7 +16583,7 @@
         <v>651</v>
       </c>
       <c r="E648" t="s">
-        <v>1465</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -16519,7 +16600,7 @@
         <v>652</v>
       </c>
       <c r="E649" t="s">
-        <v>1466</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -16536,7 +16617,7 @@
         <v>653</v>
       </c>
       <c r="E650" t="s">
-        <v>1467</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -16553,7 +16634,7 @@
         <v>654</v>
       </c>
       <c r="E651" t="s">
-        <v>1468</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="652" spans="1:5">
@@ -16570,7 +16651,7 @@
         <v>655</v>
       </c>
       <c r="E652" t="s">
-        <v>1469</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="653" spans="1:5">
@@ -16587,7 +16668,7 @@
         <v>656</v>
       </c>
       <c r="E653" t="s">
-        <v>1470</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -16604,7 +16685,7 @@
         <v>657</v>
       </c>
       <c r="E654" t="s">
-        <v>1471</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="655" spans="1:5">
@@ -16621,7 +16702,7 @@
         <v>658</v>
       </c>
       <c r="E655" t="s">
-        <v>1472</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -16638,7 +16719,7 @@
         <v>659</v>
       </c>
       <c r="E656" t="s">
-        <v>1473</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="657" spans="1:5">
@@ -16655,7 +16736,7 @@
         <v>660</v>
       </c>
       <c r="E657" t="s">
-        <v>1473</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="658" spans="1:5">
@@ -16672,7 +16753,7 @@
         <v>661</v>
       </c>
       <c r="E658" t="s">
-        <v>1474</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -16689,7 +16770,7 @@
         <v>662</v>
       </c>
       <c r="E659" t="s">
-        <v>1475</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -16706,7 +16787,7 @@
         <v>663</v>
       </c>
       <c r="E660" t="s">
-        <v>1476</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -16723,7 +16804,7 @@
         <v>664</v>
       </c>
       <c r="E661" t="s">
-        <v>1473</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -16740,7 +16821,7 @@
         <v>665</v>
       </c>
       <c r="E662" t="s">
-        <v>1472</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -16757,7 +16838,7 @@
         <v>666</v>
       </c>
       <c r="E663" t="s">
-        <v>1477</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -16774,7 +16855,7 @@
         <v>667</v>
       </c>
       <c r="E664" t="s">
-        <v>1478</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -16791,7 +16872,7 @@
         <v>668</v>
       </c>
       <c r="E665" t="s">
-        <v>1479</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -16808,7 +16889,7 @@
         <v>669</v>
       </c>
       <c r="E666" t="s">
-        <v>1480</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="667" spans="1:5">
@@ -16825,7 +16906,7 @@
         <v>670</v>
       </c>
       <c r="E667" t="s">
-        <v>1481</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="668" spans="1:5">
@@ -16842,7 +16923,7 @@
         <v>671</v>
       </c>
       <c r="E668" t="s">
-        <v>1482</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -16859,7 +16940,7 @@
         <v>672</v>
       </c>
       <c r="E669" t="s">
-        <v>1483</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -16876,7 +16957,7 @@
         <v>673</v>
       </c>
       <c r="E670" t="s">
-        <v>1484</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -16893,7 +16974,7 @@
         <v>674</v>
       </c>
       <c r="E671" t="s">
-        <v>1485</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -16910,7 +16991,7 @@
         <v>675</v>
       </c>
       <c r="E672" t="s">
-        <v>1486</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -16927,7 +17008,7 @@
         <v>676</v>
       </c>
       <c r="E673" t="s">
-        <v>1487</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -16944,7 +17025,7 @@
         <v>677</v>
       </c>
       <c r="E674" t="s">
-        <v>1488</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -16961,7 +17042,7 @@
         <v>678</v>
       </c>
       <c r="E675" t="s">
-        <v>1489</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -16978,7 +17059,7 @@
         <v>679</v>
       </c>
       <c r="E676" t="s">
-        <v>1490</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -16995,7 +17076,7 @@
         <v>680</v>
       </c>
       <c r="E677" t="s">
-        <v>1491</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="678" spans="1:5">
@@ -17012,7 +17093,7 @@
         <v>681</v>
       </c>
       <c r="E678" t="s">
-        <v>1492</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="679" spans="1:5">
@@ -17029,7 +17110,7 @@
         <v>682</v>
       </c>
       <c r="E679" t="s">
-        <v>1493</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="680" spans="1:5">
@@ -17046,7 +17127,7 @@
         <v>683</v>
       </c>
       <c r="E680" t="s">
-        <v>1494</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -17063,7 +17144,7 @@
         <v>684</v>
       </c>
       <c r="E681" t="s">
-        <v>1495</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="682" spans="1:5">
@@ -17080,7 +17161,7 @@
         <v>685</v>
       </c>
       <c r="E682" t="s">
-        <v>1496</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="683" spans="1:5">
@@ -17097,7 +17178,7 @@
         <v>686</v>
       </c>
       <c r="E683" t="s">
-        <v>1497</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -17114,7 +17195,7 @@
         <v>687</v>
       </c>
       <c r="E684" t="s">
-        <v>1498</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="685" spans="1:5">
@@ -17131,7 +17212,7 @@
         <v>688</v>
       </c>
       <c r="E685" t="s">
-        <v>1499</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="686" spans="1:5">
@@ -17148,7 +17229,7 @@
         <v>689</v>
       </c>
       <c r="E686" t="s">
-        <v>1500</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="687" spans="1:5">
@@ -17165,7 +17246,7 @@
         <v>690</v>
       </c>
       <c r="E687" t="s">
-        <v>1501</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="688" spans="1:5">
@@ -17182,7 +17263,7 @@
         <v>691</v>
       </c>
       <c r="E688" t="s">
-        <v>1502</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="689" spans="1:5">
@@ -17199,7 +17280,7 @@
         <v>692</v>
       </c>
       <c r="E689" t="s">
-        <v>1503</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="690" spans="1:5">
@@ -17216,7 +17297,7 @@
         <v>693</v>
       </c>
       <c r="E690" t="s">
-        <v>1504</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="691" spans="1:5">
@@ -17233,7 +17314,7 @@
         <v>694</v>
       </c>
       <c r="E691" t="s">
-        <v>1505</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="692" spans="1:5">
@@ -17250,7 +17331,7 @@
         <v>695</v>
       </c>
       <c r="E692" t="s">
-        <v>1506</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="693" spans="1:5">
@@ -17267,7 +17348,7 @@
         <v>696</v>
       </c>
       <c r="E693" t="s">
-        <v>1507</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="694" spans="1:5">
@@ -17284,7 +17365,7 @@
         <v>697</v>
       </c>
       <c r="E694" t="s">
-        <v>1508</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="695" spans="1:5">
@@ -17301,7 +17382,7 @@
         <v>698</v>
       </c>
       <c r="E695" t="s">
-        <v>1509</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="696" spans="1:5">
@@ -17318,7 +17399,7 @@
         <v>699</v>
       </c>
       <c r="E696" t="s">
-        <v>1510</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="697" spans="1:5">
@@ -17335,7 +17416,7 @@
         <v>700</v>
       </c>
       <c r="E697" t="s">
-        <v>1510</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -17352,7 +17433,7 @@
         <v>701</v>
       </c>
       <c r="E698" t="s">
-        <v>1511</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="699" spans="1:5">
@@ -17369,7 +17450,7 @@
         <v>702</v>
       </c>
       <c r="E699" t="s">
-        <v>1512</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="700" spans="1:5">
@@ -17386,7 +17467,7 @@
         <v>703</v>
       </c>
       <c r="E700" t="s">
-        <v>1513</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="701" spans="1:5">
@@ -17403,7 +17484,7 @@
         <v>704</v>
       </c>
       <c r="E701" t="s">
-        <v>1514</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="702" spans="1:5">
@@ -17420,7 +17501,7 @@
         <v>705</v>
       </c>
       <c r="E702" t="s">
-        <v>1515</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="703" spans="1:5">
@@ -17437,7 +17518,7 @@
         <v>706</v>
       </c>
       <c r="E703" t="s">
-        <v>1514</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="704" spans="1:5">
@@ -17454,7 +17535,7 @@
         <v>707</v>
       </c>
       <c r="E704" t="s">
-        <v>1516</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="705" spans="1:5">
@@ -17471,7 +17552,7 @@
         <v>708</v>
       </c>
       <c r="E705" t="s">
-        <v>1517</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="706" spans="1:5">
@@ -17488,7 +17569,7 @@
         <v>709</v>
       </c>
       <c r="E706" t="s">
-        <v>1518</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="707" spans="1:5">
@@ -17505,7 +17586,7 @@
         <v>710</v>
       </c>
       <c r="E707" t="s">
-        <v>1519</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="708" spans="1:5">
@@ -17522,7 +17603,7 @@
         <v>711</v>
       </c>
       <c r="E708" t="s">
-        <v>1520</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="709" spans="1:5">
@@ -17539,7 +17620,7 @@
         <v>712</v>
       </c>
       <c r="E709" t="s">
-        <v>1520</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="710" spans="1:5">
@@ -17556,7 +17637,7 @@
         <v>713</v>
       </c>
       <c r="E710" t="s">
-        <v>1521</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="711" spans="1:5">
@@ -17573,7 +17654,7 @@
         <v>714</v>
       </c>
       <c r="E711" t="s">
-        <v>1522</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="712" spans="1:5">
@@ -17590,7 +17671,7 @@
         <v>715</v>
       </c>
       <c r="E712" t="s">
-        <v>1523</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="713" spans="1:5">
@@ -17607,7 +17688,7 @@
         <v>716</v>
       </c>
       <c r="E713" t="s">
-        <v>1524</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="714" spans="1:5">
@@ -17624,7 +17705,7 @@
         <v>717</v>
       </c>
       <c r="E714" t="s">
-        <v>1525</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="715" spans="1:5">
@@ -17641,7 +17722,7 @@
         <v>718</v>
       </c>
       <c r="E715" t="s">
-        <v>1526</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="716" spans="1:5">
@@ -17658,7 +17739,7 @@
         <v>719</v>
       </c>
       <c r="E716" t="s">
-        <v>1527</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="717" spans="1:5">
@@ -17675,7 +17756,7 @@
         <v>720</v>
       </c>
       <c r="E717" t="s">
-        <v>1528</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="718" spans="1:5">
@@ -17692,7 +17773,7 @@
         <v>721</v>
       </c>
       <c r="E718" t="s">
-        <v>1529</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="719" spans="1:5">
@@ -17709,7 +17790,7 @@
         <v>722</v>
       </c>
       <c r="E719" t="s">
-        <v>1530</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="720" spans="1:5">
@@ -17726,7 +17807,7 @@
         <v>723</v>
       </c>
       <c r="E720" t="s">
-        <v>1531</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="721" spans="1:5">
@@ -17743,7 +17824,7 @@
         <v>724</v>
       </c>
       <c r="E721" t="s">
-        <v>1532</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="722" spans="1:5">
@@ -17760,7 +17841,7 @@
         <v>725</v>
       </c>
       <c r="E722" t="s">
-        <v>1533</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="723" spans="1:5">
@@ -17777,7 +17858,7 @@
         <v>726</v>
       </c>
       <c r="E723" t="s">
-        <v>1534</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="724" spans="1:5">
@@ -17794,7 +17875,7 @@
         <v>727</v>
       </c>
       <c r="E724" t="s">
-        <v>1535</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="725" spans="1:5">
@@ -17811,7 +17892,7 @@
         <v>728</v>
       </c>
       <c r="E725" t="s">
-        <v>1536</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="726" spans="1:5">
@@ -17828,7 +17909,7 @@
         <v>729</v>
       </c>
       <c r="E726" t="s">
-        <v>1537</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="727" spans="1:5">
@@ -17845,7 +17926,7 @@
         <v>730</v>
       </c>
       <c r="E727" t="s">
-        <v>1538</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="728" spans="1:5">
@@ -17862,7 +17943,7 @@
         <v>731</v>
       </c>
       <c r="E728" t="s">
-        <v>1539</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="729" spans="1:5">
@@ -17879,7 +17960,7 @@
         <v>732</v>
       </c>
       <c r="E729" t="s">
-        <v>1540</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="730" spans="1:5">
@@ -17896,7 +17977,7 @@
         <v>733</v>
       </c>
       <c r="E730" t="s">
-        <v>1541</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="731" spans="1:5">
@@ -17913,7 +17994,7 @@
         <v>734</v>
       </c>
       <c r="E731" t="s">
-        <v>1542</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="732" spans="1:5">
@@ -17930,7 +18011,7 @@
         <v>735</v>
       </c>
       <c r="E732" t="s">
-        <v>1543</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="733" spans="1:5">
@@ -17947,7 +18028,7 @@
         <v>736</v>
       </c>
       <c r="E733" t="s">
-        <v>1544</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="734" spans="1:5">
@@ -17964,7 +18045,7 @@
         <v>737</v>
       </c>
       <c r="E734" t="s">
-        <v>1545</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="735" spans="1:5">
@@ -17981,7 +18062,7 @@
         <v>738</v>
       </c>
       <c r="E735" t="s">
-        <v>1546</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="736" spans="1:5">
@@ -17998,7 +18079,7 @@
         <v>739</v>
       </c>
       <c r="E736" t="s">
-        <v>1547</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="737" spans="1:5">
@@ -18015,7 +18096,7 @@
         <v>740</v>
       </c>
       <c r="E737" t="s">
-        <v>1548</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="738" spans="1:5">
@@ -18032,7 +18113,7 @@
         <v>741</v>
       </c>
       <c r="E738" t="s">
-        <v>1549</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="739" spans="1:5">
@@ -18049,7 +18130,7 @@
         <v>742</v>
       </c>
       <c r="E739" t="s">
-        <v>1550</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="740" spans="1:5">
@@ -18066,7 +18147,7 @@
         <v>743</v>
       </c>
       <c r="E740" t="s">
-        <v>1551</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="741" spans="1:5">
@@ -18083,7 +18164,7 @@
         <v>744</v>
       </c>
       <c r="E741" t="s">
-        <v>1552</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="742" spans="1:5">
@@ -18100,7 +18181,7 @@
         <v>745</v>
       </c>
       <c r="E742" t="s">
-        <v>1553</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="743" spans="1:5">
@@ -18117,7 +18198,7 @@
         <v>746</v>
       </c>
       <c r="E743" t="s">
-        <v>1554</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="744" spans="1:5">
@@ -18134,7 +18215,7 @@
         <v>747</v>
       </c>
       <c r="E744" t="s">
-        <v>1555</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="745" spans="1:5">
@@ -18151,7 +18232,7 @@
         <v>748</v>
       </c>
       <c r="E745" t="s">
-        <v>1556</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="746" spans="1:5">
@@ -18168,7 +18249,7 @@
         <v>749</v>
       </c>
       <c r="E746" t="s">
-        <v>1557</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="747" spans="1:5">
@@ -18185,7 +18266,7 @@
         <v>750</v>
       </c>
       <c r="E747" t="s">
-        <v>1558</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="748" spans="1:5">
@@ -18202,7 +18283,7 @@
         <v>751</v>
       </c>
       <c r="E748" t="s">
-        <v>1559</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="749" spans="1:5">
@@ -18219,7 +18300,7 @@
         <v>752</v>
       </c>
       <c r="E749" t="s">
-        <v>1560</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="750" spans="1:5">
@@ -18236,7 +18317,7 @@
         <v>753</v>
       </c>
       <c r="E750" t="s">
-        <v>1561</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="751" spans="1:5">
@@ -18253,7 +18334,7 @@
         <v>754</v>
       </c>
       <c r="E751" t="s">
-        <v>1562</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="752" spans="1:5">
@@ -18270,7 +18351,7 @@
         <v>755</v>
       </c>
       <c r="E752" t="s">
-        <v>1563</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="753" spans="1:5">
@@ -18287,7 +18368,7 @@
         <v>756</v>
       </c>
       <c r="E753" t="s">
-        <v>1564</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="754" spans="1:5">
@@ -18304,7 +18385,7 @@
         <v>757</v>
       </c>
       <c r="E754" t="s">
-        <v>1565</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="755" spans="1:5">
@@ -18321,7 +18402,7 @@
         <v>758</v>
       </c>
       <c r="E755" t="s">
-        <v>1566</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="756" spans="1:5">
@@ -18338,7 +18419,7 @@
         <v>759</v>
       </c>
       <c r="E756" t="s">
-        <v>1567</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="757" spans="1:5">
@@ -18355,7 +18436,7 @@
         <v>760</v>
       </c>
       <c r="E757" t="s">
-        <v>1568</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="758" spans="1:5">
@@ -18372,7 +18453,7 @@
         <v>761</v>
       </c>
       <c r="E758" t="s">
-        <v>1569</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="759" spans="1:5">
@@ -18389,7 +18470,7 @@
         <v>762</v>
       </c>
       <c r="E759" t="s">
-        <v>1570</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="760" spans="1:5">
@@ -18406,7 +18487,7 @@
         <v>763</v>
       </c>
       <c r="E760" t="s">
-        <v>1571</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="761" spans="1:5">
@@ -18423,7 +18504,7 @@
         <v>764</v>
       </c>
       <c r="E761" t="s">
-        <v>1572</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="762" spans="1:5">
@@ -18440,7 +18521,7 @@
         <v>765</v>
       </c>
       <c r="E762" t="s">
-        <v>1573</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="763" spans="1:5">
@@ -18457,7 +18538,7 @@
         <v>766</v>
       </c>
       <c r="E763" t="s">
-        <v>1574</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="764" spans="1:5">
@@ -18474,7 +18555,7 @@
         <v>767</v>
       </c>
       <c r="E764" t="s">
-        <v>1575</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="765" spans="1:5">
@@ -18491,7 +18572,7 @@
         <v>768</v>
       </c>
       <c r="E765" t="s">
-        <v>1576</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="766" spans="1:5">
@@ -18508,7 +18589,7 @@
         <v>769</v>
       </c>
       <c r="E766" t="s">
-        <v>1577</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="767" spans="1:5">
@@ -18525,7 +18606,7 @@
         <v>770</v>
       </c>
       <c r="E767" t="s">
-        <v>1578</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="768" spans="1:5">
@@ -18542,7 +18623,7 @@
         <v>771</v>
       </c>
       <c r="E768" t="s">
-        <v>1579</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="769" spans="1:5">
@@ -18559,7 +18640,7 @@
         <v>772</v>
       </c>
       <c r="E769" t="s">
-        <v>1580</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="770" spans="1:5">
@@ -18576,7 +18657,7 @@
         <v>773</v>
       </c>
       <c r="E770" t="s">
-        <v>1581</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="771" spans="1:5">
@@ -18593,7 +18674,7 @@
         <v>774</v>
       </c>
       <c r="E771" t="s">
-        <v>1582</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="772" spans="1:5">
@@ -18610,7 +18691,7 @@
         <v>775</v>
       </c>
       <c r="E772" t="s">
-        <v>1583</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="773" spans="1:5">
@@ -18627,7 +18708,7 @@
         <v>776</v>
       </c>
       <c r="E773" t="s">
-        <v>1584</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="774" spans="1:5">
@@ -18644,7 +18725,7 @@
         <v>777</v>
       </c>
       <c r="E774" t="s">
-        <v>1585</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="775" spans="1:5">
@@ -18661,7 +18742,7 @@
         <v>778</v>
       </c>
       <c r="E775" t="s">
-        <v>1585</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="776" spans="1:5">
@@ -18678,7 +18759,7 @@
         <v>779</v>
       </c>
       <c r="E776" t="s">
-        <v>1586</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="777" spans="1:5">
@@ -18695,7 +18776,7 @@
         <v>780</v>
       </c>
       <c r="E777" t="s">
-        <v>1587</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="778" spans="1:5">
@@ -18712,7 +18793,7 @@
         <v>781</v>
       </c>
       <c r="E778" t="s">
-        <v>1588</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="779" spans="1:5">
@@ -18729,7 +18810,7 @@
         <v>782</v>
       </c>
       <c r="E779" t="s">
-        <v>1589</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="780" spans="1:5">
@@ -18746,7 +18827,7 @@
         <v>783</v>
       </c>
       <c r="E780" t="s">
-        <v>1590</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="781" spans="1:5">
@@ -18763,7 +18844,7 @@
         <v>784</v>
       </c>
       <c r="E781" t="s">
-        <v>1591</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="782" spans="1:5">
@@ -18780,7 +18861,7 @@
         <v>785</v>
       </c>
       <c r="E782" t="s">
-        <v>1592</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="783" spans="1:5">
@@ -18797,7 +18878,7 @@
         <v>786</v>
       </c>
       <c r="E783" t="s">
-        <v>1593</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="784" spans="1:5">
@@ -18814,7 +18895,7 @@
         <v>787</v>
       </c>
       <c r="E784" t="s">
-        <v>1594</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="785" spans="1:5">
@@ -18831,7 +18912,7 @@
         <v>788</v>
       </c>
       <c r="E785" t="s">
-        <v>1595</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="786" spans="1:5">
@@ -18848,7 +18929,7 @@
         <v>789</v>
       </c>
       <c r="E786" t="s">
-        <v>1596</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="787" spans="1:5">
@@ -18865,7 +18946,7 @@
         <v>790</v>
       </c>
       <c r="E787" t="s">
-        <v>1597</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="788" spans="1:5">
@@ -18882,7 +18963,7 @@
         <v>791</v>
       </c>
       <c r="E788" t="s">
-        <v>1598</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="789" spans="1:5">
@@ -18899,7 +18980,7 @@
         <v>792</v>
       </c>
       <c r="E789" t="s">
-        <v>1599</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="790" spans="1:5">
@@ -18916,7 +18997,7 @@
         <v>793</v>
       </c>
       <c r="E790" t="s">
-        <v>1600</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="791" spans="1:5">
@@ -18933,7 +19014,7 @@
         <v>794</v>
       </c>
       <c r="E791" t="s">
-        <v>1601</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="792" spans="1:5">
@@ -18950,7 +19031,7 @@
         <v>795</v>
       </c>
       <c r="E792" t="s">
-        <v>1602</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="793" spans="1:5">
@@ -18967,7 +19048,7 @@
         <v>796</v>
       </c>
       <c r="E793" t="s">
-        <v>1603</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="794" spans="1:5">
@@ -18984,7 +19065,7 @@
         <v>797</v>
       </c>
       <c r="E794" t="s">
-        <v>1604</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="795" spans="1:5">
@@ -19001,7 +19082,7 @@
         <v>798</v>
       </c>
       <c r="E795" t="s">
-        <v>1605</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="796" spans="1:5">
@@ -19018,7 +19099,7 @@
         <v>799</v>
       </c>
       <c r="E796" t="s">
-        <v>1606</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="797" spans="1:5">
@@ -19035,7 +19116,7 @@
         <v>800</v>
       </c>
       <c r="E797" t="s">
-        <v>1607</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="798" spans="1:5">
@@ -19052,7 +19133,7 @@
         <v>801</v>
       </c>
       <c r="E798" t="s">
-        <v>1608</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="799" spans="1:5">
@@ -19069,7 +19150,7 @@
         <v>802</v>
       </c>
       <c r="E799" t="s">
-        <v>1609</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="800" spans="1:5">
@@ -19086,7 +19167,7 @@
         <v>803</v>
       </c>
       <c r="E800" t="s">
-        <v>1610</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="801" spans="1:5">
@@ -19103,7 +19184,7 @@
         <v>804</v>
       </c>
       <c r="E801" t="s">
-        <v>1611</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="802" spans="1:5">
@@ -19120,7 +19201,7 @@
         <v>805</v>
       </c>
       <c r="E802" t="s">
-        <v>1612</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -19137,7 +19218,7 @@
         <v>806</v>
       </c>
       <c r="E803" t="s">
-        <v>1613</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="804" spans="1:5">
@@ -19154,7 +19235,7 @@
         <v>807</v>
       </c>
       <c r="E804" t="s">
-        <v>1614</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="805" spans="1:5">
@@ -19171,7 +19252,7 @@
         <v>808</v>
       </c>
       <c r="E805" t="s">
-        <v>1615</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="806" spans="1:5">
@@ -19188,7 +19269,7 @@
         <v>809</v>
       </c>
       <c r="E806" t="s">
-        <v>1616</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="807" spans="1:5">
@@ -19205,7 +19286,7 @@
         <v>810</v>
       </c>
       <c r="E807" t="s">
-        <v>1617</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="808" spans="1:5">
@@ -19222,7 +19303,7 @@
         <v>811</v>
       </c>
       <c r="E808" t="s">
-        <v>1618</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="809" spans="1:5">
@@ -19239,7 +19320,7 @@
         <v>812</v>
       </c>
       <c r="E809" t="s">
-        <v>1619</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="810" spans="1:5">
@@ -19256,7 +19337,7 @@
         <v>813</v>
       </c>
       <c r="E810" t="s">
-        <v>1620</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="811" spans="1:5">
@@ -19273,7 +19354,7 @@
         <v>814</v>
       </c>
       <c r="E811" t="s">
-        <v>1621</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="812" spans="1:5">
@@ -19290,7 +19371,7 @@
         <v>815</v>
       </c>
       <c r="E812" t="s">
-        <v>1622</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="813" spans="1:5">
@@ -19307,7 +19388,7 @@
         <v>816</v>
       </c>
       <c r="E813" t="s">
-        <v>1623</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="814" spans="1:5">
@@ -19324,7 +19405,7 @@
         <v>817</v>
       </c>
       <c r="E814" t="s">
-        <v>1624</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="815" spans="1:5">
@@ -19341,7 +19422,7 @@
         <v>818</v>
       </c>
       <c r="E815" t="s">
-        <v>1625</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="816" spans="1:5">
@@ -19358,7 +19439,7 @@
         <v>819</v>
       </c>
       <c r="E816" t="s">
-        <v>1626</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="817" spans="1:5">
@@ -19375,7 +19456,7 @@
         <v>820</v>
       </c>
       <c r="E817" t="s">
-        <v>1627</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="818" spans="1:5">
@@ -19392,7 +19473,7 @@
         <v>821</v>
       </c>
       <c r="E818" t="s">
-        <v>1628</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="819" spans="1:5">
@@ -19409,7 +19490,7 @@
         <v>822</v>
       </c>
       <c r="E819" t="s">
-        <v>1629</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="820" spans="1:5">
@@ -19426,7 +19507,7 @@
         <v>823</v>
       </c>
       <c r="E820" t="s">
-        <v>1630</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="821" spans="1:5">
@@ -19443,7 +19524,7 @@
         <v>824</v>
       </c>
       <c r="E821" t="s">
-        <v>1631</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="822" spans="1:5">
@@ -19460,7 +19541,7 @@
         <v>825</v>
       </c>
       <c r="E822" t="s">
-        <v>1632</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="823" spans="1:5">
@@ -19477,7 +19558,7 @@
         <v>826</v>
       </c>
       <c r="E823" t="s">
-        <v>1633</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="824" spans="1:5">
@@ -19494,7 +19575,7 @@
         <v>827</v>
       </c>
       <c r="E824" t="s">
-        <v>1634</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="825" spans="1:5">
@@ -19511,7 +19592,7 @@
         <v>828</v>
       </c>
       <c r="E825" t="s">
-        <v>1635</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="826" spans="1:5">
@@ -19528,7 +19609,7 @@
         <v>829</v>
       </c>
       <c r="E826" t="s">
-        <v>1622</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="827" spans="1:5">
@@ -19545,7 +19626,7 @@
         <v>830</v>
       </c>
       <c r="E827" t="s">
-        <v>1636</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="828" spans="1:5">
@@ -19562,7 +19643,7 @@
         <v>831</v>
       </c>
       <c r="E828" t="s">
-        <v>1637</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="829" spans="1:5">
@@ -19579,7 +19660,7 @@
         <v>832</v>
       </c>
       <c r="E829" t="s">
-        <v>1638</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="830" spans="1:5">
@@ -19596,7 +19677,7 @@
         <v>833</v>
       </c>
       <c r="E830" t="s">
-        <v>1639</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="831" spans="1:5">
@@ -19613,7 +19694,7 @@
         <v>834</v>
       </c>
       <c r="E831" t="s">
-        <v>1640</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="832" spans="1:5">
@@ -19630,7 +19711,7 @@
         <v>835</v>
       </c>
       <c r="E832" t="s">
-        <v>1641</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="833" spans="1:5">
@@ -19647,7 +19728,7 @@
         <v>836</v>
       </c>
       <c r="E833" t="s">
-        <v>1642</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="834" spans="1:5">
@@ -19664,7 +19745,7 @@
         <v>837</v>
       </c>
       <c r="E834" t="s">
-        <v>1643</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="835" spans="1:5">
@@ -19681,7 +19762,7 @@
         <v>838</v>
       </c>
       <c r="E835" t="s">
-        <v>1644</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="836" spans="1:5">
@@ -19698,7 +19779,7 @@
         <v>839</v>
       </c>
       <c r="E836" t="s">
-        <v>1645</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="837" spans="1:5">
@@ -19715,7 +19796,7 @@
         <v>840</v>
       </c>
       <c r="E837" t="s">
-        <v>1646</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="838" spans="1:5">
@@ -19732,7 +19813,7 @@
         <v>841</v>
       </c>
       <c r="E838" t="s">
-        <v>1647</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="839" spans="1:5">
@@ -19749,7 +19830,7 @@
         <v>842</v>
       </c>
       <c r="E839" t="s">
-        <v>1648</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="840" spans="1:5">
@@ -19766,7 +19847,7 @@
         <v>843</v>
       </c>
       <c r="E840" t="s">
-        <v>1649</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="841" spans="1:5">
@@ -19783,7 +19864,7 @@
         <v>844</v>
       </c>
       <c r="E841" t="s">
-        <v>1650</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="842" spans="1:5">
@@ -19800,7 +19881,7 @@
         <v>845</v>
       </c>
       <c r="E842" t="s">
-        <v>1651</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="843" spans="1:5">
@@ -19817,7 +19898,7 @@
         <v>846</v>
       </c>
       <c r="E843" t="s">
-        <v>1652</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="844" spans="1:5">
@@ -19834,7 +19915,7 @@
         <v>847</v>
       </c>
       <c r="E844" t="s">
-        <v>1653</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="845" spans="1:5">
@@ -19851,7 +19932,7 @@
         <v>848</v>
       </c>
       <c r="E845" t="s">
-        <v>1654</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="846" spans="1:5">
@@ -19868,7 +19949,7 @@
         <v>849</v>
       </c>
       <c r="E846" t="s">
-        <v>1655</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="847" spans="1:5">
@@ -19885,7 +19966,7 @@
         <v>850</v>
       </c>
       <c r="E847" t="s">
-        <v>1656</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="848" spans="1:5">
@@ -19902,7 +19983,7 @@
         <v>851</v>
       </c>
       <c r="E848" t="s">
-        <v>1657</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="849" spans="1:5">
@@ -19919,7 +20000,7 @@
         <v>852</v>
       </c>
       <c r="E849" t="s">
-        <v>1658</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="850" spans="1:5">
@@ -19936,7 +20017,7 @@
         <v>853</v>
       </c>
       <c r="E850" t="s">
-        <v>1659</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="851" spans="1:5">
@@ -19953,7 +20034,7 @@
         <v>854</v>
       </c>
       <c r="E851" t="s">
-        <v>1660</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="852" spans="1:5">
@@ -19970,7 +20051,7 @@
         <v>855</v>
       </c>
       <c r="E852" t="s">
-        <v>1661</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="853" spans="1:5">
@@ -19987,7 +20068,7 @@
         <v>856</v>
       </c>
       <c r="E853" t="s">
-        <v>1662</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="854" spans="1:5">
@@ -20004,7 +20085,7 @@
         <v>857</v>
       </c>
       <c r="E854" t="s">
-        <v>1663</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="855" spans="1:5">
@@ -20021,7 +20102,7 @@
         <v>858</v>
       </c>
       <c r="E855" t="s">
-        <v>1664</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="856" spans="1:5">
@@ -20038,7 +20119,7 @@
         <v>859</v>
       </c>
       <c r="E856" t="s">
-        <v>1665</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="857" spans="1:5">
@@ -20055,7 +20136,7 @@
         <v>860</v>
       </c>
       <c r="E857" t="s">
-        <v>1666</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="858" spans="1:5">
@@ -20072,7 +20153,7 @@
         <v>861</v>
       </c>
       <c r="E858" t="s">
-        <v>1667</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="859" spans="1:5">
@@ -20089,7 +20170,7 @@
         <v>862</v>
       </c>
       <c r="E859" t="s">
-        <v>1668</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="860" spans="1:5">
@@ -20106,7 +20187,7 @@
         <v>863</v>
       </c>
       <c r="E860" t="s">
-        <v>1669</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="861" spans="1:5">
@@ -20123,7 +20204,7 @@
         <v>864</v>
       </c>
       <c r="E861" t="s">
-        <v>1670</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="862" spans="1:5">
@@ -20140,7 +20221,7 @@
         <v>865</v>
       </c>
       <c r="E862" t="s">
-        <v>1671</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="863" spans="1:5">
@@ -20157,7 +20238,7 @@
         <v>866</v>
       </c>
       <c r="E863" t="s">
-        <v>1672</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="864" spans="1:5">
@@ -20174,7 +20255,7 @@
         <v>867</v>
       </c>
       <c r="E864" t="s">
-        <v>1673</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="865" spans="1:5">
@@ -20191,7 +20272,7 @@
         <v>868</v>
       </c>
       <c r="E865" t="s">
-        <v>1674</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="866" spans="1:5">
@@ -20208,7 +20289,7 @@
         <v>869</v>
       </c>
       <c r="E866" t="s">
-        <v>1675</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="867" spans="1:5">
@@ -20225,7 +20306,7 @@
         <v>870</v>
       </c>
       <c r="E867" t="s">
-        <v>1676</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="868" spans="1:5">
@@ -20242,7 +20323,7 @@
         <v>871</v>
       </c>
       <c r="E868" t="s">
-        <v>1677</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="869" spans="1:5">
@@ -20259,7 +20340,7 @@
         <v>872</v>
       </c>
       <c r="E869" t="s">
-        <v>1678</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="870" spans="1:5">
@@ -20276,7 +20357,7 @@
         <v>873</v>
       </c>
       <c r="E870" t="s">
-        <v>1679</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="871" spans="1:5">
@@ -20293,7 +20374,7 @@
         <v>874</v>
       </c>
       <c r="E871" t="s">
-        <v>1680</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="872" spans="1:5">
@@ -20310,7 +20391,7 @@
         <v>875</v>
       </c>
       <c r="E872" t="s">
-        <v>1681</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="873" spans="1:5">
@@ -20327,7 +20408,7 @@
         <v>876</v>
       </c>
       <c r="E873" t="s">
-        <v>1682</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="874" spans="1:5">
@@ -20344,7 +20425,7 @@
         <v>877</v>
       </c>
       <c r="E874" t="s">
-        <v>1683</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="875" spans="1:5">
@@ -20361,7 +20442,7 @@
         <v>878</v>
       </c>
       <c r="E875" t="s">
-        <v>1684</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="876" spans="1:5">
@@ -20378,7 +20459,7 @@
         <v>879</v>
       </c>
       <c r="E876" t="s">
-        <v>1685</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="877" spans="1:5">
@@ -20395,7 +20476,7 @@
         <v>880</v>
       </c>
       <c r="E877" t="s">
-        <v>1686</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="878" spans="1:5">
@@ -20412,7 +20493,7 @@
         <v>881</v>
       </c>
       <c r="E878" t="s">
-        <v>1687</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="879" spans="1:5">
@@ -20429,7 +20510,7 @@
         <v>882</v>
       </c>
       <c r="E879" t="s">
-        <v>1688</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="880" spans="1:5">
@@ -20446,7 +20527,7 @@
         <v>883</v>
       </c>
       <c r="E880" t="s">
-        <v>1685</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="881" spans="1:5">
@@ -20463,7 +20544,7 @@
         <v>884</v>
       </c>
       <c r="E881" t="s">
-        <v>1689</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="882" spans="1:5">
@@ -20480,7 +20561,7 @@
         <v>885</v>
       </c>
       <c r="E882" t="s">
-        <v>1690</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="883" spans="1:5">
@@ -20497,7 +20578,7 @@
         <v>886</v>
       </c>
       <c r="E883" t="s">
-        <v>1691</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="884" spans="1:5">
@@ -20514,7 +20595,7 @@
         <v>887</v>
       </c>
       <c r="E884" t="s">
-        <v>1692</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="885" spans="1:5">
@@ -20531,7 +20612,7 @@
         <v>888</v>
       </c>
       <c r="E885" t="s">
-        <v>1693</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="886" spans="1:5">
@@ -20548,7 +20629,7 @@
         <v>889</v>
       </c>
       <c r="E886" t="s">
-        <v>1694</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="887" spans="1:5">
@@ -20565,7 +20646,7 @@
         <v>890</v>
       </c>
       <c r="E887" t="s">
-        <v>1695</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="888" spans="1:5">
@@ -20582,7 +20663,7 @@
         <v>891</v>
       </c>
       <c r="E888" t="s">
-        <v>1696</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="889" spans="1:5">
@@ -20599,7 +20680,7 @@
         <v>892</v>
       </c>
       <c r="E889" t="s">
-        <v>1697</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="890" spans="1:5">
@@ -20616,7 +20697,7 @@
         <v>893</v>
       </c>
       <c r="E890" t="s">
-        <v>1698</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="891" spans="1:5">
@@ -20633,7 +20714,7 @@
         <v>894</v>
       </c>
       <c r="E891" t="s">
-        <v>1699</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="892" spans="1:5">
@@ -20650,7 +20731,7 @@
         <v>895</v>
       </c>
       <c r="E892" t="s">
-        <v>1700</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="893" spans="1:5">
@@ -20667,7 +20748,7 @@
         <v>896</v>
       </c>
       <c r="E893" t="s">
-        <v>1701</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="894" spans="1:5">
@@ -20684,7 +20765,7 @@
         <v>897</v>
       </c>
       <c r="E894" t="s">
-        <v>1702</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="895" spans="1:5">
@@ -20701,7 +20782,228 @@
         <v>898</v>
       </c>
       <c r="E895" t="s">
-        <v>1703</v>
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5">
+      <c r="A896" s="1">
+        <v>894</v>
+      </c>
+      <c r="B896" t="s">
+        <v>4</v>
+      </c>
+      <c r="C896" t="s">
+        <v>4</v>
+      </c>
+      <c r="D896" t="s">
+        <v>899</v>
+      </c>
+      <c r="E896" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5">
+      <c r="A897" s="1">
+        <v>895</v>
+      </c>
+      <c r="B897" t="s">
+        <v>4</v>
+      </c>
+      <c r="C897" t="s">
+        <v>4</v>
+      </c>
+      <c r="D897" t="s">
+        <v>900</v>
+      </c>
+      <c r="E897" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5">
+      <c r="A898" s="1">
+        <v>896</v>
+      </c>
+      <c r="B898" t="s">
+        <v>4</v>
+      </c>
+      <c r="C898" t="s">
+        <v>4</v>
+      </c>
+      <c r="D898" t="s">
+        <v>901</v>
+      </c>
+      <c r="E898" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5">
+      <c r="A899" s="1">
+        <v>897</v>
+      </c>
+      <c r="B899" t="s">
+        <v>4</v>
+      </c>
+      <c r="C899" t="s">
+        <v>4</v>
+      </c>
+      <c r="D899" t="s">
+        <v>902</v>
+      </c>
+      <c r="E899" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5">
+      <c r="A900" s="1">
+        <v>898</v>
+      </c>
+      <c r="B900" t="s">
+        <v>4</v>
+      </c>
+      <c r="C900" t="s">
+        <v>4</v>
+      </c>
+      <c r="D900" t="s">
+        <v>903</v>
+      </c>
+      <c r="E900" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5">
+      <c r="A901" s="1">
+        <v>899</v>
+      </c>
+      <c r="B901" t="s">
+        <v>4</v>
+      </c>
+      <c r="C901" t="s">
+        <v>4</v>
+      </c>
+      <c r="D901" t="s">
+        <v>904</v>
+      </c>
+      <c r="E901" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5">
+      <c r="A902" s="1">
+        <v>900</v>
+      </c>
+      <c r="B902" t="s">
+        <v>4</v>
+      </c>
+      <c r="C902" t="s">
+        <v>4</v>
+      </c>
+      <c r="D902" t="s">
+        <v>905</v>
+      </c>
+      <c r="E902" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5">
+      <c r="A903" s="1">
+        <v>901</v>
+      </c>
+      <c r="B903" t="s">
+        <v>4</v>
+      </c>
+      <c r="C903" t="s">
+        <v>4</v>
+      </c>
+      <c r="D903" t="s">
+        <v>906</v>
+      </c>
+      <c r="E903" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5">
+      <c r="A904" s="1">
+        <v>902</v>
+      </c>
+      <c r="B904" t="s">
+        <v>4</v>
+      </c>
+      <c r="C904" t="s">
+        <v>4</v>
+      </c>
+      <c r="D904" t="s">
+        <v>907</v>
+      </c>
+      <c r="E904" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5">
+      <c r="A905" s="1">
+        <v>903</v>
+      </c>
+      <c r="B905" t="s">
+        <v>4</v>
+      </c>
+      <c r="C905" t="s">
+        <v>4</v>
+      </c>
+      <c r="D905" t="s">
+        <v>908</v>
+      </c>
+      <c r="E905" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5">
+      <c r="A906" s="1">
+        <v>904</v>
+      </c>
+      <c r="B906" t="s">
+        <v>4</v>
+      </c>
+      <c r="C906" t="s">
+        <v>4</v>
+      </c>
+      <c r="D906" t="s">
+        <v>909</v>
+      </c>
+      <c r="E906" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5">
+      <c r="A907" s="1">
+        <v>905</v>
+      </c>
+      <c r="B907" t="s">
+        <v>4</v>
+      </c>
+      <c r="C907" t="s">
+        <v>4</v>
+      </c>
+      <c r="D907" t="s">
+        <v>910</v>
+      </c>
+      <c r="E907" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5">
+      <c r="A908" s="1">
+        <v>906</v>
+      </c>
+      <c r="B908" t="s">
+        <v>4</v>
+      </c>
+      <c r="C908" t="s">
+        <v>4</v>
+      </c>
+      <c r="D908" t="s">
+        <v>911</v>
+      </c>
+      <c r="E908" t="s">
+        <v>1730</v>
       </c>
     </row>
   </sheetData>
